--- a/outputs/wl_senior_monthly.xlsx
+++ b/outputs/wl_senior_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,37 +527,37 @@
         <v>42736</v>
       </c>
       <c r="C2" t="n">
-        <v>7705.608355569026</v>
+        <v>7632.096960908812</v>
       </c>
       <c r="D2" t="n">
-        <v>6444.634125672734</v>
+        <v>6557.661257204117</v>
       </c>
       <c r="E2" t="n">
-        <v>8672.939050506287</v>
+        <v>8789.622451786221</v>
       </c>
       <c r="F2" t="n">
-        <v>7705.608355569026</v>
+        <v>7632.096960908812</v>
       </c>
       <c r="G2" t="n">
-        <v>7705.608355569026</v>
+        <v>7632.096960908812</v>
       </c>
       <c r="H2" t="n">
-        <v>-140.0412526959394</v>
+        <v>3.163860038078484</v>
       </c>
       <c r="I2" t="n">
-        <v>-140.0412526959394</v>
+        <v>3.163860038078484</v>
       </c>
       <c r="J2" t="n">
-        <v>-140.0412526959394</v>
+        <v>3.163860038078484</v>
       </c>
       <c r="K2" t="n">
-        <v>-140.0412526959394</v>
+        <v>3.163860038078484</v>
       </c>
       <c r="L2" t="n">
-        <v>-140.0412526959394</v>
+        <v>3.163860038078484</v>
       </c>
       <c r="M2" t="n">
-        <v>-140.0412526959394</v>
+        <v>3.163860038078484</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>7565.567102873086</v>
+        <v>7635.260820946891</v>
       </c>
     </row>
     <row r="3">
@@ -580,37 +580,37 @@
         <v>42767</v>
       </c>
       <c r="C3" t="n">
-        <v>7653.745732556545</v>
+        <v>7577.640557921112</v>
       </c>
       <c r="D3" t="n">
-        <v>5483.035365550784</v>
+        <v>5639.209379580531</v>
       </c>
       <c r="E3" t="n">
-        <v>7725.706148177587</v>
+        <v>7892.858206915355</v>
       </c>
       <c r="F3" t="n">
-        <v>7653.745732556545</v>
+        <v>7577.640557921112</v>
       </c>
       <c r="G3" t="n">
-        <v>7653.745732556545</v>
+        <v>7577.640557921112</v>
       </c>
       <c r="H3" t="n">
-        <v>-972.5329263747327</v>
+        <v>-801.0709538516218</v>
       </c>
       <c r="I3" t="n">
-        <v>-972.5329263747327</v>
+        <v>-801.0709538516218</v>
       </c>
       <c r="J3" t="n">
-        <v>-972.5329263747327</v>
+        <v>-801.0709538516218</v>
       </c>
       <c r="K3" t="n">
-        <v>-972.5329263747327</v>
+        <v>-801.0709538516218</v>
       </c>
       <c r="L3" t="n">
-        <v>-972.5329263747327</v>
+        <v>-801.0709538516218</v>
       </c>
       <c r="M3" t="n">
-        <v>-972.5329263747327</v>
+        <v>-801.0709538516218</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6681.212806181812</v>
+        <v>6776.56960406949</v>
       </c>
     </row>
     <row r="4">
@@ -633,37 +633,37 @@
         <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>7606.902073061399</v>
+        <v>7528.454129416092</v>
       </c>
       <c r="D4" t="n">
-        <v>6515.096277285687</v>
+        <v>6536.409372116116</v>
       </c>
       <c r="E4" t="n">
-        <v>8729.000279502998</v>
+        <v>8802.23788450469</v>
       </c>
       <c r="F4" t="n">
-        <v>7606.902073061399</v>
+        <v>7528.454129416092</v>
       </c>
       <c r="G4" t="n">
-        <v>7606.902073061399</v>
+        <v>7528.454129416092</v>
       </c>
       <c r="H4" t="n">
-        <v>17.34927479656825</v>
+        <v>100.4015840808383</v>
       </c>
       <c r="I4" t="n">
-        <v>17.34927479656825</v>
+        <v>100.4015840808383</v>
       </c>
       <c r="J4" t="n">
-        <v>17.34927479656825</v>
+        <v>100.4015840808383</v>
       </c>
       <c r="K4" t="n">
-        <v>17.34927479656825</v>
+        <v>100.4015840808383</v>
       </c>
       <c r="L4" t="n">
-        <v>17.34927479656825</v>
+        <v>100.4015840808383</v>
       </c>
       <c r="M4" t="n">
-        <v>17.34927479656825</v>
+        <v>100.4015840808383</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>7624.251347857968</v>
+        <v>7628.85571349693</v>
       </c>
     </row>
     <row r="5">
@@ -686,37 +686,37 @@
         <v>42826</v>
       </c>
       <c r="C5" t="n">
-        <v>7555.039450078202</v>
+        <v>7473.997726393502</v>
       </c>
       <c r="D5" t="n">
-        <v>6065.394120922342</v>
+        <v>5978.480270073748</v>
       </c>
       <c r="E5" t="n">
-        <v>8267.101601755512</v>
+        <v>8247.019375486863</v>
       </c>
       <c r="F5" t="n">
-        <v>7555.039450078202</v>
+        <v>7473.997726393502</v>
       </c>
       <c r="G5" t="n">
-        <v>7555.039450078202</v>
+        <v>7473.997726393502</v>
       </c>
       <c r="H5" t="n">
-        <v>-404.9706285678438</v>
+        <v>-317.5872756289192</v>
       </c>
       <c r="I5" t="n">
-        <v>-404.9706285678438</v>
+        <v>-317.5872756289192</v>
       </c>
       <c r="J5" t="n">
-        <v>-404.9706285678438</v>
+        <v>-317.5872756289192</v>
       </c>
       <c r="K5" t="n">
-        <v>-404.9706285678438</v>
+        <v>-317.5872756289192</v>
       </c>
       <c r="L5" t="n">
-        <v>-404.9706285678438</v>
+        <v>-317.5872756289192</v>
       </c>
       <c r="M5" t="n">
-        <v>-404.9706285678438</v>
+        <v>-317.5872756289192</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>7150.068821510358</v>
+        <v>7156.410450764583</v>
       </c>
     </row>
     <row r="6">
@@ -739,37 +739,37 @@
         <v>42856</v>
       </c>
       <c r="C6" t="n">
-        <v>7504.849814933173</v>
+        <v>7421.297981532933</v>
       </c>
       <c r="D6" t="n">
-        <v>6062.813846403857</v>
+        <v>6107.72051177448</v>
       </c>
       <c r="E6" t="n">
-        <v>8246.402228608164</v>
+        <v>8237.873559142416</v>
       </c>
       <c r="F6" t="n">
-        <v>7504.849814933173</v>
+        <v>7421.297981532933</v>
       </c>
       <c r="G6" t="n">
-        <v>7504.849814933173</v>
+        <v>7421.297981532933</v>
       </c>
       <c r="H6" t="n">
-        <v>-312.6359300962964</v>
+        <v>-231.8380244858982</v>
       </c>
       <c r="I6" t="n">
-        <v>-312.6359300962964</v>
+        <v>-231.8380244858982</v>
       </c>
       <c r="J6" t="n">
-        <v>-312.6359300962964</v>
+        <v>-231.8380244858982</v>
       </c>
       <c r="K6" t="n">
-        <v>-312.6359300962964</v>
+        <v>-231.8380244858982</v>
       </c>
       <c r="L6" t="n">
-        <v>-312.6359300962964</v>
+        <v>-231.8380244858982</v>
       </c>
       <c r="M6" t="n">
-        <v>-312.6359300962964</v>
+        <v>-231.8380244858982</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>7192.213884836876</v>
+        <v>7189.459957047035</v>
       </c>
     </row>
     <row r="7">
@@ -792,37 +792,37 @@
         <v>42887</v>
       </c>
       <c r="C7" t="n">
-        <v>7452.987191975307</v>
+        <v>7366.84157847554</v>
       </c>
       <c r="D7" t="n">
-        <v>6529.458361483432</v>
+        <v>6141.12403830291</v>
       </c>
       <c r="E7" t="n">
-        <v>8652.527686067877</v>
+        <v>8519.695632838531</v>
       </c>
       <c r="F7" t="n">
-        <v>7452.987191975307</v>
+        <v>7366.84157847554</v>
       </c>
       <c r="G7" t="n">
-        <v>7452.987191975307</v>
+        <v>7366.84157847554</v>
       </c>
       <c r="H7" t="n">
-        <v>154.3552940488192</v>
+        <v>-11.61822424178042</v>
       </c>
       <c r="I7" t="n">
-        <v>154.3552940488192</v>
+        <v>-11.61822424178042</v>
       </c>
       <c r="J7" t="n">
-        <v>154.3552940488192</v>
+        <v>-11.61822424178042</v>
       </c>
       <c r="K7" t="n">
-        <v>154.3552940488192</v>
+        <v>-11.61822424178042</v>
       </c>
       <c r="L7" t="n">
-        <v>154.3552940488192</v>
+        <v>-11.61822424178042</v>
       </c>
       <c r="M7" t="n">
-        <v>154.3552940488192</v>
+        <v>-11.61822424178042</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>7607.342486024126</v>
+        <v>7355.223354233759</v>
       </c>
     </row>
     <row r="8">
@@ -845,37 +845,37 @@
         <v>42917</v>
       </c>
       <c r="C8" t="n">
-        <v>7402.797556854793</v>
+        <v>7314.141833581287</v>
       </c>
       <c r="D8" t="n">
-        <v>6524.529585660141</v>
+        <v>6414.032577742723</v>
       </c>
       <c r="E8" t="n">
-        <v>8761.89682858961</v>
+        <v>8767.599810891339</v>
       </c>
       <c r="F8" t="n">
-        <v>7402.797556854793</v>
+        <v>7314.141833581287</v>
       </c>
       <c r="G8" t="n">
-        <v>7402.797556854793</v>
+        <v>7314.141833581287</v>
       </c>
       <c r="H8" t="n">
-        <v>218.4662886808565</v>
+        <v>243.8287704199581</v>
       </c>
       <c r="I8" t="n">
-        <v>218.4662886808565</v>
+        <v>243.8287704199581</v>
       </c>
       <c r="J8" t="n">
-        <v>218.4662886808565</v>
+        <v>243.8287704199581</v>
       </c>
       <c r="K8" t="n">
-        <v>218.4662886808565</v>
+        <v>243.8287704199581</v>
       </c>
       <c r="L8" t="n">
-        <v>218.4662886808565</v>
+        <v>243.8287704199581</v>
       </c>
       <c r="M8" t="n">
-        <v>218.4662886808565</v>
+        <v>243.8287704199581</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>7621.263845535649</v>
+        <v>7557.970604001245</v>
       </c>
     </row>
     <row r="9">
@@ -898,37 +898,37 @@
         <v>42948</v>
       </c>
       <c r="C9" t="n">
-        <v>7350.934933920914</v>
+        <v>7259.685430577143</v>
       </c>
       <c r="D9" t="n">
-        <v>7069.509509096098</v>
+        <v>6978.151646861338</v>
       </c>
       <c r="E9" t="n">
-        <v>9162.094390610891</v>
+        <v>9161.489384769049</v>
       </c>
       <c r="F9" t="n">
-        <v>7350.934933920914</v>
+        <v>7259.685430577143</v>
       </c>
       <c r="G9" t="n">
-        <v>7350.934933920914</v>
+        <v>7259.685430577143</v>
       </c>
       <c r="H9" t="n">
-        <v>743.2265592977864</v>
+        <v>776.0799100517197</v>
       </c>
       <c r="I9" t="n">
-        <v>743.2265592977864</v>
+        <v>776.0799100517197</v>
       </c>
       <c r="J9" t="n">
-        <v>743.2265592977864</v>
+        <v>776.0799100517197</v>
       </c>
       <c r="K9" t="n">
-        <v>743.2265592977864</v>
+        <v>776.0799100517197</v>
       </c>
       <c r="L9" t="n">
-        <v>743.2265592977864</v>
+        <v>776.0799100517197</v>
       </c>
       <c r="M9" t="n">
-        <v>743.2265592977864</v>
+        <v>776.0799100517197</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>8094.1614932187</v>
+        <v>8035.765340628863</v>
       </c>
     </row>
     <row r="10">
@@ -951,37 +951,37 @@
         <v>42979</v>
       </c>
       <c r="C10" t="n">
-        <v>7299.072310987035</v>
+        <v>7205.229027572997</v>
       </c>
       <c r="D10" t="n">
-        <v>6926.608458545775</v>
+        <v>6881.997569720324</v>
       </c>
       <c r="E10" t="n">
-        <v>9023.692806130022</v>
+        <v>9155.745536438613</v>
       </c>
       <c r="F10" t="n">
-        <v>7299.072310987035</v>
+        <v>7205.229027572997</v>
       </c>
       <c r="G10" t="n">
-        <v>7299.072310987035</v>
+        <v>7205.229027572997</v>
       </c>
       <c r="H10" t="n">
-        <v>708.0644543169633</v>
+        <v>750.2710413705926</v>
       </c>
       <c r="I10" t="n">
-        <v>708.0644543169633</v>
+        <v>750.2710413705926</v>
       </c>
       <c r="J10" t="n">
-        <v>708.0644543169633</v>
+        <v>750.2710413705926</v>
       </c>
       <c r="K10" t="n">
-        <v>708.0644543169633</v>
+        <v>750.2710413705926</v>
       </c>
       <c r="L10" t="n">
-        <v>708.0644543169633</v>
+        <v>750.2710413705926</v>
       </c>
       <c r="M10" t="n">
-        <v>708.0644543169633</v>
+        <v>750.2710413705926</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>8007.136765303998</v>
+        <v>7955.50006894359</v>
       </c>
     </row>
     <row r="11">
@@ -1004,37 +1004,37 @@
         <v>43009</v>
       </c>
       <c r="C11" t="n">
-        <v>7248.882675860145</v>
+        <v>7152.529282725884</v>
       </c>
       <c r="D11" t="n">
-        <v>6942.352849621275</v>
+        <v>6877.725481875237</v>
       </c>
       <c r="E11" t="n">
-        <v>9180.324067501459</v>
+        <v>9154.081780685961</v>
       </c>
       <c r="F11" t="n">
-        <v>7248.882675860145</v>
+        <v>7152.529282725884</v>
       </c>
       <c r="G11" t="n">
-        <v>7248.882675860145</v>
+        <v>7152.529282725884</v>
       </c>
       <c r="H11" t="n">
-        <v>791.8366892479157</v>
+        <v>850.6015833690701</v>
       </c>
       <c r="I11" t="n">
-        <v>791.8366892479157</v>
+        <v>850.6015833690701</v>
       </c>
       <c r="J11" t="n">
-        <v>791.8366892479157</v>
+        <v>850.6015833690701</v>
       </c>
       <c r="K11" t="n">
-        <v>791.8366892479157</v>
+        <v>850.6015833690701</v>
       </c>
       <c r="L11" t="n">
-        <v>791.8366892479157</v>
+        <v>850.6015833690701</v>
       </c>
       <c r="M11" t="n">
-        <v>791.8366892479157</v>
+        <v>850.6015833690701</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>8040.719365108062</v>
+        <v>8003.130866094953</v>
       </c>
     </row>
     <row r="12">
@@ -1057,37 +1057,37 @@
         <v>43040</v>
       </c>
       <c r="C12" t="n">
-        <v>7197.020052895692</v>
+        <v>7098.0728797172</v>
       </c>
       <c r="D12" t="n">
-        <v>5854.843069497217</v>
+        <v>5774.112947299657</v>
       </c>
       <c r="E12" t="n">
-        <v>8071.572611185675</v>
+        <v>8096.374792942425</v>
       </c>
       <c r="F12" t="n">
-        <v>7197.020052895692</v>
+        <v>7098.0728797172</v>
       </c>
       <c r="G12" t="n">
-        <v>7197.020052895692</v>
+        <v>7098.0728797172</v>
       </c>
       <c r="H12" t="n">
-        <v>-209.2690547713307</v>
+        <v>-129.4996266579217</v>
       </c>
       <c r="I12" t="n">
-        <v>-209.2690547713307</v>
+        <v>-129.4996266579217</v>
       </c>
       <c r="J12" t="n">
-        <v>-209.2690547713307</v>
+        <v>-129.4996266579217</v>
       </c>
       <c r="K12" t="n">
-        <v>-209.2690547713307</v>
+        <v>-129.4996266579217</v>
       </c>
       <c r="L12" t="n">
-        <v>-209.2690547713307</v>
+        <v>-129.4996266579217</v>
       </c>
       <c r="M12" t="n">
-        <v>-209.2690547713307</v>
+        <v>-129.4996266579217</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6987.750998124361</v>
+        <v>6968.573253059278</v>
       </c>
     </row>
     <row r="13">
@@ -1110,37 +1110,37 @@
         <v>43070</v>
       </c>
       <c r="C13" t="n">
-        <v>7146.830417748997</v>
+        <v>7045.373134857238</v>
       </c>
       <c r="D13" t="n">
-        <v>5554.3902187135</v>
+        <v>5495.798095232742</v>
       </c>
       <c r="E13" t="n">
-        <v>7711.89766248358</v>
+        <v>7905.850741534537</v>
       </c>
       <c r="F13" t="n">
-        <v>7146.830417748997</v>
+        <v>7045.373134857238</v>
       </c>
       <c r="G13" t="n">
-        <v>7146.830417748997</v>
+        <v>7045.373134857238</v>
       </c>
       <c r="H13" t="n">
-        <v>-463.6402865314266</v>
+        <v>-361.0715966989306</v>
       </c>
       <c r="I13" t="n">
-        <v>-463.6402865314266</v>
+        <v>-361.0715966989306</v>
       </c>
       <c r="J13" t="n">
-        <v>-463.6402865314266</v>
+        <v>-361.0715966989306</v>
       </c>
       <c r="K13" t="n">
-        <v>-463.6402865314266</v>
+        <v>-361.0715966989306</v>
       </c>
       <c r="L13" t="n">
-        <v>-463.6402865314266</v>
+        <v>-361.0715966989306</v>
       </c>
       <c r="M13" t="n">
-        <v>-463.6402865314266</v>
+        <v>-361.0715966989306</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>6683.190131217571</v>
+        <v>6684.301538158307</v>
       </c>
     </row>
     <row r="14">
@@ -1163,37 +1163,37 @@
         <v>43101</v>
       </c>
       <c r="C14" t="n">
-        <v>7094.967794764081</v>
+        <v>6990.916731835279</v>
       </c>
       <c r="D14" t="n">
-        <v>5790.737504741533</v>
+        <v>5784.402812792167</v>
       </c>
       <c r="E14" t="n">
-        <v>8084.812405634992</v>
+        <v>8055.159025922722</v>
       </c>
       <c r="F14" t="n">
-        <v>7094.967794764081</v>
+        <v>6990.916731835279</v>
       </c>
       <c r="G14" t="n">
-        <v>7094.967794764081</v>
+        <v>6990.916731835279</v>
       </c>
       <c r="H14" t="n">
-        <v>-180.499008433596</v>
+        <v>-76.56028568929825</v>
       </c>
       <c r="I14" t="n">
-        <v>-180.499008433596</v>
+        <v>-76.56028568929825</v>
       </c>
       <c r="J14" t="n">
-        <v>-180.499008433596</v>
+        <v>-76.56028568929825</v>
       </c>
       <c r="K14" t="n">
-        <v>-180.499008433596</v>
+        <v>-76.56028568929825</v>
       </c>
       <c r="L14" t="n">
-        <v>-180.499008433596</v>
+        <v>-76.56028568929825</v>
       </c>
       <c r="M14" t="n">
-        <v>-180.499008433596</v>
+        <v>-76.56028568929825</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>6914.468786330485</v>
+        <v>6914.356446145981</v>
       </c>
     </row>
     <row r="15">
@@ -1216,37 +1216,37 @@
         <v>43132</v>
       </c>
       <c r="C15" t="n">
-        <v>7043.105171800733</v>
+        <v>6936.460328757885</v>
       </c>
       <c r="D15" t="n">
-        <v>5155.888054810816</v>
+        <v>5109.057125027821</v>
       </c>
       <c r="E15" t="n">
-        <v>7228.914827470305</v>
+        <v>7333.751355452118</v>
       </c>
       <c r="F15" t="n">
-        <v>7043.105171800733</v>
+        <v>6936.460328757885</v>
       </c>
       <c r="G15" t="n">
-        <v>7043.105171800733</v>
+        <v>6936.460328757885</v>
       </c>
       <c r="H15" t="n">
-        <v>-857.5502291593469</v>
+        <v>-742.6860809434183</v>
       </c>
       <c r="I15" t="n">
-        <v>-857.5502291593469</v>
+        <v>-742.6860809434183</v>
       </c>
       <c r="J15" t="n">
-        <v>-857.5502291593469</v>
+        <v>-742.6860809434183</v>
       </c>
       <c r="K15" t="n">
-        <v>-857.5502291593469</v>
+        <v>-742.6860809434183</v>
       </c>
       <c r="L15" t="n">
-        <v>-857.5502291593469</v>
+        <v>-742.6860809434183</v>
       </c>
       <c r="M15" t="n">
-        <v>-857.5502291593469</v>
+        <v>-742.6860809434183</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6185.554942641386</v>
+        <v>6193.774247814466</v>
       </c>
     </row>
     <row r="16">
@@ -1269,37 +1269,37 @@
         <v>43160</v>
       </c>
       <c r="C16" t="n">
-        <v>6996.261512349965</v>
+        <v>6887.27390017185</v>
       </c>
       <c r="D16" t="n">
-        <v>5986.804537424926</v>
+        <v>6021.775729826776</v>
       </c>
       <c r="E16" t="n">
-        <v>8165.83092610818</v>
+        <v>8249.20509937018</v>
       </c>
       <c r="F16" t="n">
-        <v>6996.261512349965</v>
+        <v>6887.27390017185</v>
       </c>
       <c r="G16" t="n">
-        <v>6996.261512349965</v>
+        <v>6887.27390017185</v>
       </c>
       <c r="H16" t="n">
-        <v>49.75003524651152</v>
+        <v>195.3308295375105</v>
       </c>
       <c r="I16" t="n">
-        <v>49.75003524651152</v>
+        <v>195.3308295375105</v>
       </c>
       <c r="J16" t="n">
-        <v>49.75003524651152</v>
+        <v>195.3308295375105</v>
       </c>
       <c r="K16" t="n">
-        <v>49.75003524651152</v>
+        <v>195.3308295375105</v>
       </c>
       <c r="L16" t="n">
-        <v>49.75003524651152</v>
+        <v>195.3308295375105</v>
       </c>
       <c r="M16" t="n">
-        <v>49.75003524651152</v>
+        <v>195.3308295375105</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>7046.011547596476</v>
+        <v>7082.604729709361</v>
       </c>
     </row>
     <row r="17">
@@ -1322,37 +1322,37 @@
         <v>43191</v>
       </c>
       <c r="C17" t="n">
-        <v>6944.398889422318</v>
+        <v>6832.817497046773</v>
       </c>
       <c r="D17" t="n">
-        <v>5151.11659308479</v>
+        <v>5149.723962928902</v>
       </c>
       <c r="E17" t="n">
-        <v>7432.824973008213</v>
+        <v>7499.725801872801</v>
       </c>
       <c r="F17" t="n">
-        <v>6944.398889422318</v>
+        <v>6832.817497046773</v>
       </c>
       <c r="G17" t="n">
-        <v>6944.398889422318</v>
+        <v>6832.817497046773</v>
       </c>
       <c r="H17" t="n">
-        <v>-626.0214703826238</v>
+        <v>-464.6722718060338</v>
       </c>
       <c r="I17" t="n">
-        <v>-626.0214703826238</v>
+        <v>-464.6722718060338</v>
       </c>
       <c r="J17" t="n">
-        <v>-626.0214703826238</v>
+        <v>-464.6722718060338</v>
       </c>
       <c r="K17" t="n">
-        <v>-626.0214703826238</v>
+        <v>-464.6722718060338</v>
       </c>
       <c r="L17" t="n">
-        <v>-626.0214703826238</v>
+        <v>-464.6722718060338</v>
       </c>
       <c r="M17" t="n">
-        <v>-626.0214703826238</v>
+        <v>-464.6722718060338</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>6318.377419039693</v>
+        <v>6368.14522524074</v>
       </c>
     </row>
     <row r="18">
@@ -1375,37 +1375,37 @@
         <v>43221</v>
       </c>
       <c r="C18" t="n">
-        <v>6894.209254331045</v>
+        <v>6780.117752087024</v>
       </c>
       <c r="D18" t="n">
-        <v>5486.783222418842</v>
+        <v>5483.411150136916</v>
       </c>
       <c r="E18" t="n">
-        <v>7714.560722150723</v>
+        <v>7737.435330406774</v>
       </c>
       <c r="F18" t="n">
-        <v>6894.209254331045</v>
+        <v>6780.117752087024</v>
       </c>
       <c r="G18" t="n">
-        <v>6894.209254331045</v>
+        <v>6780.117752087024</v>
       </c>
       <c r="H18" t="n">
-        <v>-269.6218705829437</v>
+        <v>-149.4845655771268</v>
       </c>
       <c r="I18" t="n">
-        <v>-269.6218705829437</v>
+        <v>-149.4845655771268</v>
       </c>
       <c r="J18" t="n">
-        <v>-269.6218705829437</v>
+        <v>-149.4845655771268</v>
       </c>
       <c r="K18" t="n">
-        <v>-269.6218705829437</v>
+        <v>-149.4845655771268</v>
       </c>
       <c r="L18" t="n">
-        <v>-269.6218705829437</v>
+        <v>-149.4845655771268</v>
       </c>
       <c r="M18" t="n">
-        <v>-269.6218705829437</v>
+        <v>-149.4845655771268</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6624.587383748102</v>
+        <v>6630.633186509897</v>
       </c>
     </row>
     <row r="19">
@@ -1428,37 +1428,37 @@
         <v>43252</v>
       </c>
       <c r="C19" t="n">
-        <v>6842.34663142593</v>
+        <v>6725.661348928095</v>
       </c>
       <c r="D19" t="n">
-        <v>5882.832180826666</v>
+        <v>5348.201783178274</v>
       </c>
       <c r="E19" t="n">
-        <v>8145.162434967834</v>
+        <v>7694.871249988141</v>
       </c>
       <c r="F19" t="n">
-        <v>6842.34663142593</v>
+        <v>6725.661348928095</v>
       </c>
       <c r="G19" t="n">
-        <v>6842.34663142593</v>
+        <v>6725.661348928095</v>
       </c>
       <c r="H19" t="n">
-        <v>145.0889220737682</v>
+        <v>-187.3036042960206</v>
       </c>
       <c r="I19" t="n">
-        <v>145.0889220737682</v>
+        <v>-187.3036042960206</v>
       </c>
       <c r="J19" t="n">
-        <v>145.0889220737682</v>
+        <v>-187.3036042960206</v>
       </c>
       <c r="K19" t="n">
-        <v>145.0889220737682</v>
+        <v>-187.3036042960206</v>
       </c>
       <c r="L19" t="n">
-        <v>145.0889220737682</v>
+        <v>-187.3036042960206</v>
       </c>
       <c r="M19" t="n">
-        <v>145.0889220737682</v>
+        <v>-187.3036042960206</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>6987.435553499698</v>
+        <v>6538.357744632075</v>
       </c>
     </row>
     <row r="20">
@@ -1481,37 +1481,37 @@
         <v>43282</v>
       </c>
       <c r="C20" t="n">
-        <v>6792.156996356464</v>
+        <v>6672.961603935583</v>
       </c>
       <c r="D20" t="n">
-        <v>6082.583767924407</v>
+        <v>5855.833119797313</v>
       </c>
       <c r="E20" t="n">
-        <v>8291.163813966736</v>
+        <v>8230.465157829891</v>
       </c>
       <c r="F20" t="n">
-        <v>6792.156996356464</v>
+        <v>6672.961603935583</v>
       </c>
       <c r="G20" t="n">
-        <v>6792.156996356464</v>
+        <v>6672.961603935583</v>
       </c>
       <c r="H20" t="n">
-        <v>367.7841786863432</v>
+        <v>402.0080508743602</v>
       </c>
       <c r="I20" t="n">
-        <v>367.7841786863432</v>
+        <v>402.0080508743602</v>
       </c>
       <c r="J20" t="n">
-        <v>367.7841786863432</v>
+        <v>402.0080508743602</v>
       </c>
       <c r="K20" t="n">
-        <v>367.7841786863432</v>
+        <v>402.0080508743602</v>
       </c>
       <c r="L20" t="n">
-        <v>367.7841786863432</v>
+        <v>402.0080508743602</v>
       </c>
       <c r="M20" t="n">
-        <v>367.7841786863432</v>
+        <v>402.0080508743602</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>7159.941175042808</v>
+        <v>7074.969654809944</v>
       </c>
     </row>
     <row r="21">
@@ -1534,37 +1534,37 @@
         <v>43313</v>
       </c>
       <c r="C21" t="n">
-        <v>6740.294373509612</v>
+        <v>6618.505785444797</v>
       </c>
       <c r="D21" t="n">
-        <v>6608.54358584037</v>
+        <v>6261.12482652593</v>
       </c>
       <c r="E21" t="n">
-        <v>8725.135336342266</v>
+        <v>8570.050225655938</v>
       </c>
       <c r="F21" t="n">
-        <v>6740.294373509612</v>
+        <v>6618.505785444797</v>
       </c>
       <c r="G21" t="n">
-        <v>6740.294373509612</v>
+        <v>6618.505785444797</v>
       </c>
       <c r="H21" t="n">
-        <v>839.6231907212937</v>
+        <v>897.820271245332</v>
       </c>
       <c r="I21" t="n">
-        <v>839.6231907212937</v>
+        <v>897.820271245332</v>
       </c>
       <c r="J21" t="n">
-        <v>839.6231907212937</v>
+        <v>897.820271245332</v>
       </c>
       <c r="K21" t="n">
-        <v>839.6231907212937</v>
+        <v>897.820271245332</v>
       </c>
       <c r="L21" t="n">
-        <v>839.6231907212937</v>
+        <v>897.820271245332</v>
       </c>
       <c r="M21" t="n">
-        <v>839.6231907212937</v>
+        <v>897.820271245332</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>7579.917564230906</v>
+        <v>7516.326056690129</v>
       </c>
     </row>
     <row r="22">
@@ -1587,37 +1587,37 @@
         <v>43344</v>
       </c>
       <c r="C22" t="n">
-        <v>6688.431750662759</v>
+        <v>6564.049966954011</v>
       </c>
       <c r="D22" t="n">
-        <v>6017.005284774942</v>
+        <v>5970.788909680669</v>
       </c>
       <c r="E22" t="n">
-        <v>8212.823188817056</v>
+        <v>8287.370223115209</v>
       </c>
       <c r="F22" t="n">
-        <v>6688.431750662759</v>
+        <v>6564.049966954011</v>
       </c>
       <c r="G22" t="n">
-        <v>6688.431750662759</v>
+        <v>6564.049966954011</v>
       </c>
       <c r="H22" t="n">
-        <v>438.9690288234277</v>
+        <v>518.0735823452346</v>
       </c>
       <c r="I22" t="n">
-        <v>438.9690288234277</v>
+        <v>518.0735823452346</v>
       </c>
       <c r="J22" t="n">
-        <v>438.9690288234277</v>
+        <v>518.0735823452346</v>
       </c>
       <c r="K22" t="n">
-        <v>438.9690288234277</v>
+        <v>518.0735823452346</v>
       </c>
       <c r="L22" t="n">
-        <v>438.9690288234277</v>
+        <v>518.0735823452346</v>
       </c>
       <c r="M22" t="n">
-        <v>438.9690288234277</v>
+        <v>518.0735823452346</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>7127.400779486186</v>
+        <v>7082.123549299245</v>
       </c>
     </row>
     <row r="23">
@@ -1640,37 +1640,37 @@
         <v>43374</v>
       </c>
       <c r="C23" t="n">
-        <v>6638.270300255514</v>
+        <v>6511.370325788866</v>
       </c>
       <c r="D23" t="n">
-        <v>6358.672518239939</v>
+        <v>6195.561349269714</v>
       </c>
       <c r="E23" t="n">
-        <v>8516.955788458417</v>
+        <v>8552.69285775674</v>
       </c>
       <c r="F23" t="n">
-        <v>6638.270300255514</v>
+        <v>6511.370325788866</v>
       </c>
       <c r="G23" t="n">
-        <v>6638.270300255514</v>
+        <v>6511.370325788866</v>
       </c>
       <c r="H23" t="n">
-        <v>826.0533439419968</v>
+        <v>914.9799253760293</v>
       </c>
       <c r="I23" t="n">
-        <v>826.0533439419968</v>
+        <v>914.9799253760293</v>
       </c>
       <c r="J23" t="n">
-        <v>826.0533439419968</v>
+        <v>914.9799253760293</v>
       </c>
       <c r="K23" t="n">
-        <v>826.0533439419968</v>
+        <v>914.9799253760293</v>
       </c>
       <c r="L23" t="n">
-        <v>826.0533439419968</v>
+        <v>914.9799253760293</v>
       </c>
       <c r="M23" t="n">
-        <v>826.0533439419968</v>
+        <v>914.9799253760293</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>7464.32364419751</v>
+        <v>7426.350251164895</v>
       </c>
     </row>
     <row r="24">
@@ -1693,37 +1693,37 @@
         <v>43405</v>
       </c>
       <c r="C24" t="n">
-        <v>6586.43680150136</v>
+        <v>6456.934696584883</v>
       </c>
       <c r="D24" t="n">
-        <v>5448.827154525663</v>
+        <v>5128.329985491826</v>
       </c>
       <c r="E24" t="n">
-        <v>7531.919125987691</v>
+        <v>7416.264185697874</v>
       </c>
       <c r="F24" t="n">
-        <v>6586.43680150136</v>
+        <v>6456.934696584883</v>
       </c>
       <c r="G24" t="n">
-        <v>6586.43680150136</v>
+        <v>6456.934696584883</v>
       </c>
       <c r="H24" t="n">
-        <v>-123.7279370593889</v>
+        <v>-39.21483569345154</v>
       </c>
       <c r="I24" t="n">
-        <v>-123.7279370593889</v>
+        <v>-39.21483569345154</v>
       </c>
       <c r="J24" t="n">
-        <v>-123.7279370593889</v>
+        <v>-39.21483569345154</v>
       </c>
       <c r="K24" t="n">
-        <v>-123.7279370593889</v>
+        <v>-39.21483569345154</v>
       </c>
       <c r="L24" t="n">
-        <v>-123.7279370593889</v>
+        <v>-39.21483569345154</v>
       </c>
       <c r="M24" t="n">
-        <v>-123.7279370593889</v>
+        <v>-39.21483569345154</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6462.708864441971</v>
+        <v>6417.719860891431</v>
       </c>
     </row>
     <row r="25">
@@ -1746,37 +1746,37 @@
         <v>43435</v>
       </c>
       <c r="C25" t="n">
-        <v>6536.322474182558</v>
+        <v>6404.284893438629</v>
       </c>
       <c r="D25" t="n">
-        <v>4997.090005672801</v>
+        <v>4818.536422377955</v>
       </c>
       <c r="E25" t="n">
-        <v>7159.924170434271</v>
+        <v>7115.309648276746</v>
       </c>
       <c r="F25" t="n">
-        <v>6536.322474182558</v>
+        <v>6404.284893438629</v>
       </c>
       <c r="G25" t="n">
-        <v>6536.322474182558</v>
+        <v>6404.284893438629</v>
       </c>
       <c r="H25" t="n">
-        <v>-492.521440127732</v>
+        <v>-416.5613831134762</v>
       </c>
       <c r="I25" t="n">
-        <v>-492.521440127732</v>
+        <v>-416.5613831134762</v>
       </c>
       <c r="J25" t="n">
-        <v>-492.521440127732</v>
+        <v>-416.5613831134762</v>
       </c>
       <c r="K25" t="n">
-        <v>-492.521440127732</v>
+        <v>-416.5613831134762</v>
       </c>
       <c r="L25" t="n">
-        <v>-492.521440127732</v>
+        <v>-416.5613831134762</v>
       </c>
       <c r="M25" t="n">
-        <v>-492.521440127732</v>
+        <v>-416.5613831134762</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>6043.801034054826</v>
+        <v>5987.723510325153</v>
       </c>
     </row>
     <row r="26">
@@ -1799,37 +1799,37 @@
         <v>43466</v>
       </c>
       <c r="C26" t="n">
-        <v>6484.537669286463</v>
+        <v>6349.880096854169</v>
       </c>
       <c r="D26" t="n">
-        <v>5157.658377157749</v>
+        <v>4977.617904802354</v>
       </c>
       <c r="E26" t="n">
-        <v>7339.741843513842</v>
+        <v>7301.136227322292</v>
       </c>
       <c r="F26" t="n">
-        <v>6484.537669286463</v>
+        <v>6349.880096854169</v>
       </c>
       <c r="G26" t="n">
-        <v>6484.537669286463</v>
+        <v>6349.880096854169</v>
       </c>
       <c r="H26" t="n">
-        <v>-219.3209848031022</v>
+        <v>-154.7725461226885</v>
       </c>
       <c r="I26" t="n">
-        <v>-219.3209848031022</v>
+        <v>-154.7725461226885</v>
       </c>
       <c r="J26" t="n">
-        <v>-219.3209848031022</v>
+        <v>-154.7725461226885</v>
       </c>
       <c r="K26" t="n">
-        <v>-219.3209848031022</v>
+        <v>-154.7725461226885</v>
       </c>
       <c r="L26" t="n">
-        <v>-219.3209848031022</v>
+        <v>-154.7725461226885</v>
       </c>
       <c r="M26" t="n">
-        <v>-219.3209848031022</v>
+        <v>-154.7725461226885</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>6265.216684483361</v>
+        <v>6195.107550731481</v>
       </c>
     </row>
     <row r="27">
@@ -1852,37 +1852,37 @@
         <v>43497</v>
       </c>
       <c r="C27" t="n">
-        <v>6432.859623825599</v>
+        <v>6295.627362745628</v>
       </c>
       <c r="D27" t="n">
-        <v>4521.022510579383</v>
+        <v>4413.554608520003</v>
       </c>
       <c r="E27" t="n">
-        <v>6728.801555894806</v>
+        <v>6770.54387584492</v>
       </c>
       <c r="F27" t="n">
-        <v>6432.859623825599</v>
+        <v>6295.627362745628</v>
       </c>
       <c r="G27" t="n">
-        <v>6432.859623825599</v>
+        <v>6295.627362745628</v>
       </c>
       <c r="H27" t="n">
-        <v>-741.6876361801309</v>
+        <v>-681.7219679489681</v>
       </c>
       <c r="I27" t="n">
-        <v>-741.6876361801309</v>
+        <v>-681.7219679489681</v>
       </c>
       <c r="J27" t="n">
-        <v>-741.6876361801309</v>
+        <v>-681.7219679489681</v>
       </c>
       <c r="K27" t="n">
-        <v>-741.6876361801309</v>
+        <v>-681.7219679489681</v>
       </c>
       <c r="L27" t="n">
-        <v>-741.6876361801309</v>
+        <v>-681.7219679489681</v>
       </c>
       <c r="M27" t="n">
-        <v>-741.6876361801309</v>
+        <v>-681.7219679489681</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>5691.171987645468</v>
+        <v>5613.90539479666</v>
       </c>
     </row>
     <row r="28">
@@ -1905,37 +1905,37 @@
         <v>43525</v>
       </c>
       <c r="C28" t="n">
-        <v>6386.182679538366</v>
+        <v>6246.624893228237</v>
       </c>
       <c r="D28" t="n">
-        <v>5325.353574676975</v>
+        <v>5386.955677606536</v>
       </c>
       <c r="E28" t="n">
-        <v>7542.227096973979</v>
+        <v>7734.454448677858</v>
       </c>
       <c r="F28" t="n">
-        <v>6386.182679538366</v>
+        <v>6246.624893228237</v>
       </c>
       <c r="G28" t="n">
-        <v>6386.182679538366</v>
+        <v>6246.624893228237</v>
       </c>
       <c r="H28" t="n">
-        <v>77.44251295483174</v>
+        <v>287.2112118110965</v>
       </c>
       <c r="I28" t="n">
-        <v>77.44251295483174</v>
+        <v>287.2112118110965</v>
       </c>
       <c r="J28" t="n">
-        <v>77.44251295483174</v>
+        <v>287.2112118110965</v>
       </c>
       <c r="K28" t="n">
-        <v>77.44251295483174</v>
+        <v>287.2112118110965</v>
       </c>
       <c r="L28" t="n">
-        <v>77.44251295483174</v>
+        <v>287.2112118110965</v>
       </c>
       <c r="M28" t="n">
-        <v>77.44251295483174</v>
+        <v>287.2112118110965</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>6463.625192493198</v>
+        <v>6533.836105039333</v>
       </c>
     </row>
     <row r="29">
@@ -1958,37 +1958,37 @@
         <v>43556</v>
       </c>
       <c r="C29" t="n">
-        <v>6334.504634077501</v>
+        <v>6192.372159119696</v>
       </c>
       <c r="D29" t="n">
-        <v>4396.753051877491</v>
+        <v>4420.883841171217</v>
       </c>
       <c r="E29" t="n">
-        <v>6592.898804974901</v>
+        <v>6679.967552429343</v>
       </c>
       <c r="F29" t="n">
-        <v>6334.504634077501</v>
+        <v>6192.372159119696</v>
       </c>
       <c r="G29" t="n">
-        <v>6334.504634077501</v>
+        <v>6192.372159119696</v>
       </c>
       <c r="H29" t="n">
-        <v>-847.1482426242769</v>
+        <v>-612.7186863729937</v>
       </c>
       <c r="I29" t="n">
-        <v>-847.1482426242769</v>
+        <v>-612.7186863729937</v>
       </c>
       <c r="J29" t="n">
-        <v>-847.1482426242769</v>
+        <v>-612.7186863729937</v>
       </c>
       <c r="K29" t="n">
-        <v>-847.1482426242769</v>
+        <v>-612.7186863729937</v>
       </c>
       <c r="L29" t="n">
-        <v>-847.1482426242769</v>
+        <v>-612.7186863729937</v>
       </c>
       <c r="M29" t="n">
-        <v>-847.1482426242769</v>
+        <v>-612.7186863729937</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>5487.356391453224</v>
+        <v>5579.653472746702</v>
       </c>
     </row>
     <row r="30">
@@ -2011,37 +2011,37 @@
         <v>43586</v>
       </c>
       <c r="C30" t="n">
-        <v>6284.61369413742</v>
+        <v>6343.183511248563</v>
       </c>
       <c r="D30" t="n">
-        <v>5020.429375438124</v>
+        <v>5158.914477415517</v>
       </c>
       <c r="E30" t="n">
-        <v>7218.578659204834</v>
+        <v>7441.037000415714</v>
       </c>
       <c r="F30" t="n">
-        <v>6284.61369413742</v>
+        <v>6343.183511248563</v>
       </c>
       <c r="G30" t="n">
-        <v>6284.61369413742</v>
+        <v>6343.183511248563</v>
       </c>
       <c r="H30" t="n">
-        <v>-222.8932405880622</v>
+        <v>-67.2030205361413</v>
       </c>
       <c r="I30" t="n">
-        <v>-222.8932405880622</v>
+        <v>-67.2030205361413</v>
       </c>
       <c r="J30" t="n">
-        <v>-222.8932405880622</v>
+        <v>-67.2030205361413</v>
       </c>
       <c r="K30" t="n">
-        <v>-222.8932405880622</v>
+        <v>-67.2030205361413</v>
       </c>
       <c r="L30" t="n">
-        <v>-222.8932405880622</v>
+        <v>-67.2030205361413</v>
       </c>
       <c r="M30" t="n">
-        <v>-222.8932405880622</v>
+        <v>-67.2030205361413</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6061.720453549357</v>
+        <v>6275.980490712422</v>
       </c>
     </row>
     <row r="31">
@@ -2064,37 +2064,37 @@
         <v>43617</v>
       </c>
       <c r="C31" t="n">
-        <v>6233.059722866004</v>
+        <v>6499.021908448394</v>
       </c>
       <c r="D31" t="n">
-        <v>5280.98035168552</v>
+        <v>5004.236952011419</v>
       </c>
       <c r="E31" t="n">
-        <v>7585.896437269823</v>
+        <v>7236.07928207057</v>
       </c>
       <c r="F31" t="n">
-        <v>6233.059722866004</v>
+        <v>6499.021908448394</v>
       </c>
       <c r="G31" t="n">
-        <v>6233.059722866004</v>
+        <v>6499.021908448394</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4413303776859</v>
+        <v>-361.0761621329844</v>
       </c>
       <c r="I31" t="n">
-        <v>138.4413303776859</v>
+        <v>-361.0761621329844</v>
       </c>
       <c r="J31" t="n">
-        <v>138.4413303776859</v>
+        <v>-361.0761621329844</v>
       </c>
       <c r="K31" t="n">
-        <v>138.4413303776859</v>
+        <v>-361.0761621329844</v>
       </c>
       <c r="L31" t="n">
-        <v>138.4413303776859</v>
+        <v>-361.0761621329844</v>
       </c>
       <c r="M31" t="n">
-        <v>138.4413303776859</v>
+        <v>-361.0761621329844</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>6371.50105324369</v>
+        <v>6137.945746315409</v>
       </c>
     </row>
     <row r="32">
@@ -2117,37 +2117,37 @@
         <v>43647</v>
       </c>
       <c r="C32" t="n">
-        <v>6413.4385020319</v>
+        <v>6649.941909139239</v>
       </c>
       <c r="D32" t="n">
-        <v>5787.17928330424</v>
+        <v>6120.350768178978</v>
       </c>
       <c r="E32" t="n">
-        <v>8062.352476227188</v>
+        <v>8333.021055376657</v>
       </c>
       <c r="F32" t="n">
-        <v>6413.4385020319</v>
+        <v>6649.941909139239</v>
       </c>
       <c r="G32" t="n">
-        <v>6413.4385020319</v>
+        <v>6649.941909139239</v>
       </c>
       <c r="H32" t="n">
-        <v>517.1369255922409</v>
+        <v>562.9610306388954</v>
       </c>
       <c r="I32" t="n">
-        <v>517.1369255922409</v>
+        <v>562.9610306388954</v>
       </c>
       <c r="J32" t="n">
-        <v>517.1369255922409</v>
+        <v>562.9610306388954</v>
       </c>
       <c r="K32" t="n">
-        <v>517.1369255922409</v>
+        <v>562.9610306388954</v>
       </c>
       <c r="L32" t="n">
-        <v>517.1369255922409</v>
+        <v>562.9610306388954</v>
       </c>
       <c r="M32" t="n">
-        <v>517.1369255922409</v>
+        <v>562.9610306388954</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>6930.575427624141</v>
+        <v>7212.902939778134</v>
       </c>
     </row>
     <row r="33">
@@ -2170,37 +2170,37 @@
         <v>43678</v>
       </c>
       <c r="C33" t="n">
-        <v>6599.829907169993</v>
+        <v>6805.89257651978</v>
       </c>
       <c r="D33" t="n">
-        <v>6494.218122806042</v>
+        <v>6644.252299113136</v>
       </c>
       <c r="E33" t="n">
-        <v>8713.696343192898</v>
+        <v>8919.419117405252</v>
       </c>
       <c r="F33" t="n">
-        <v>6599.829907169993</v>
+        <v>6805.89257651978</v>
       </c>
       <c r="G33" t="n">
-        <v>6599.829907169993</v>
+        <v>6805.89257651978</v>
       </c>
       <c r="H33" t="n">
-        <v>929.845204152836</v>
+        <v>1014.806898362735</v>
       </c>
       <c r="I33" t="n">
-        <v>929.845204152836</v>
+        <v>1014.806898362735</v>
       </c>
       <c r="J33" t="n">
-        <v>929.845204152836</v>
+        <v>1014.806898362735</v>
       </c>
       <c r="K33" t="n">
-        <v>929.845204152836</v>
+        <v>1014.806898362735</v>
       </c>
       <c r="L33" t="n">
-        <v>929.845204152836</v>
+        <v>1014.806898362735</v>
       </c>
       <c r="M33" t="n">
-        <v>929.845204152836</v>
+        <v>1014.806898362735</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>7529.675111322829</v>
+        <v>7820.699474882515</v>
       </c>
     </row>
     <row r="34">
@@ -2223,37 +2223,37 @@
         <v>43709</v>
       </c>
       <c r="C34" t="n">
-        <v>6786.330926340007</v>
+        <v>6962.001827429113</v>
       </c>
       <c r="D34" t="n">
-        <v>5854.457440181235</v>
+        <v>6135.121111140443</v>
       </c>
       <c r="E34" t="n">
-        <v>8092.763852811735</v>
+        <v>8401.260465588548</v>
       </c>
       <c r="F34" t="n">
-        <v>6786.330926340007</v>
+        <v>6962.001827429113</v>
       </c>
       <c r="G34" t="n">
-        <v>6786.330926340007</v>
+        <v>6962.001827429113</v>
       </c>
       <c r="H34" t="n">
-        <v>168.3127719160049</v>
+        <v>284.6773205171467</v>
       </c>
       <c r="I34" t="n">
-        <v>168.3127719160049</v>
+        <v>284.6773205171467</v>
       </c>
       <c r="J34" t="n">
-        <v>168.3127719160049</v>
+        <v>284.6773205171467</v>
       </c>
       <c r="K34" t="n">
-        <v>168.3127719160049</v>
+        <v>284.6773205171467</v>
       </c>
       <c r="L34" t="n">
-        <v>168.3127719160049</v>
+        <v>284.6773205171467</v>
       </c>
       <c r="M34" t="n">
-        <v>168.3127719160049</v>
+        <v>284.6773205171467</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>6954.643698256012</v>
+        <v>7246.67914794626</v>
       </c>
     </row>
     <row r="35">
@@ -2276,37 +2276,37 @@
         <v>43739</v>
       </c>
       <c r="C35" t="n">
-        <v>6966.815783601309</v>
+        <v>7113.075296051051</v>
       </c>
       <c r="D35" t="n">
-        <v>6738.703958846666</v>
+        <v>6997.413682010333</v>
       </c>
       <c r="E35" t="n">
-        <v>8925.637817320896</v>
+        <v>9246.548991971767</v>
       </c>
       <c r="F35" t="n">
-        <v>6966.815783601309</v>
+        <v>7113.075296051051</v>
       </c>
       <c r="G35" t="n">
-        <v>6966.815783601309</v>
+        <v>7113.075296051051</v>
       </c>
       <c r="H35" t="n">
-        <v>864.2846195473765</v>
+        <v>982.509790408706</v>
       </c>
       <c r="I35" t="n">
-        <v>864.2846195473765</v>
+        <v>982.509790408706</v>
       </c>
       <c r="J35" t="n">
-        <v>864.2846195473765</v>
+        <v>982.509790408706</v>
       </c>
       <c r="K35" t="n">
-        <v>864.2846195473765</v>
+        <v>982.509790408706</v>
       </c>
       <c r="L35" t="n">
-        <v>864.2846195473765</v>
+        <v>982.509790408706</v>
       </c>
       <c r="M35" t="n">
-        <v>864.2846195473765</v>
+        <v>982.509790408706</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>7831.100403148685</v>
+        <v>8095.585086459757</v>
       </c>
     </row>
     <row r="36">
@@ -2329,37 +2329,37 @@
         <v>43770</v>
       </c>
       <c r="C36" t="n">
-        <v>7153.487459948355</v>
+        <v>7283.764031623167</v>
       </c>
       <c r="D36" t="n">
-        <v>6068.632516552188</v>
+        <v>6223.687287150529</v>
       </c>
       <c r="E36" t="n">
-        <v>8267.051002937686</v>
+        <v>8453.068106906856</v>
       </c>
       <c r="F36" t="n">
-        <v>7153.487459948355</v>
+        <v>7283.764031623167</v>
       </c>
       <c r="G36" t="n">
-        <v>7153.487459948355</v>
+        <v>7283.764031623167</v>
       </c>
       <c r="H36" t="n">
-        <v>-37.66109091006157</v>
+        <v>50.20369994558708</v>
       </c>
       <c r="I36" t="n">
-        <v>-37.66109091006157</v>
+        <v>50.20369994558708</v>
       </c>
       <c r="J36" t="n">
-        <v>-37.66109091006157</v>
+        <v>50.20369994558708</v>
       </c>
       <c r="K36" t="n">
-        <v>-37.66109091006157</v>
+        <v>50.20369994558708</v>
       </c>
       <c r="L36" t="n">
-        <v>-37.66109091006157</v>
+        <v>50.20369994558708</v>
       </c>
       <c r="M36" t="n">
-        <v>-37.66109091006157</v>
+        <v>50.20369994558708</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>7115.826369038293</v>
+        <v>7333.967731568754</v>
       </c>
     </row>
     <row r="37">
@@ -2382,37 +2382,37 @@
         <v>43800</v>
       </c>
       <c r="C37" t="n">
-        <v>7334.137469316463</v>
+        <v>7448.946678951023</v>
       </c>
       <c r="D37" t="n">
-        <v>5678.343880380618</v>
+        <v>5850.685789873985</v>
       </c>
       <c r="E37" t="n">
-        <v>7916.994843075757</v>
+        <v>8114.958614330598</v>
       </c>
       <c r="F37" t="n">
-        <v>7334.137469316463</v>
+        <v>7448.946678951023</v>
       </c>
       <c r="G37" t="n">
-        <v>7334.137469316463</v>
+        <v>7448.946678951023</v>
       </c>
       <c r="H37" t="n">
-        <v>-522.059694315347</v>
+        <v>-473.6963299884779</v>
       </c>
       <c r="I37" t="n">
-        <v>-522.059694315347</v>
+        <v>-473.6963299884779</v>
       </c>
       <c r="J37" t="n">
-        <v>-522.059694315347</v>
+        <v>-473.6963299884779</v>
       </c>
       <c r="K37" t="n">
-        <v>-522.059694315347</v>
+        <v>-473.6963299884779</v>
       </c>
       <c r="L37" t="n">
-        <v>-522.059694315347</v>
+        <v>-473.6963299884779</v>
       </c>
       <c r="M37" t="n">
-        <v>-522.059694315347</v>
+        <v>-473.6963299884779</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>6812.077775001117</v>
+        <v>6975.250348962545</v>
       </c>
     </row>
     <row r="38">
@@ -2435,37 +2435,37 @@
         <v>43831</v>
       </c>
       <c r="C38" t="n">
-        <v>7520.92578644544</v>
+        <v>7619.72099518689</v>
       </c>
       <c r="D38" t="n">
-        <v>6106.086867305214</v>
+        <v>6283.134854635739</v>
       </c>
       <c r="E38" t="n">
-        <v>8300.754491578618</v>
+        <v>8570.420777767455</v>
       </c>
       <c r="F38" t="n">
-        <v>7520.92578644544</v>
+        <v>7619.72099518689</v>
       </c>
       <c r="G38" t="n">
-        <v>7520.92578644544</v>
+        <v>7619.72099518689</v>
       </c>
       <c r="H38" t="n">
-        <v>-256.4947177038136</v>
+        <v>-231.3864542492128</v>
       </c>
       <c r="I38" t="n">
-        <v>-256.4947177038136</v>
+        <v>-231.3864542492128</v>
       </c>
       <c r="J38" t="n">
-        <v>-256.4947177038136</v>
+        <v>-231.3864542492128</v>
       </c>
       <c r="K38" t="n">
-        <v>-256.4947177038136</v>
+        <v>-231.3864542492128</v>
       </c>
       <c r="L38" t="n">
-        <v>-256.4947177038136</v>
+        <v>-231.3864542492128</v>
       </c>
       <c r="M38" t="n">
-        <v>-256.4947177038136</v>
+        <v>-231.3864542492128</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>7264.431068741626</v>
+        <v>7388.334540937677</v>
       </c>
     </row>
     <row r="39">
@@ -2488,37 +2488,37 @@
         <v>43862</v>
       </c>
       <c r="C39" t="n">
-        <v>7707.714103574419</v>
+        <v>7790.495311422756</v>
       </c>
       <c r="D39" t="n">
-        <v>5960.087892175004</v>
+        <v>6021.563869434327</v>
       </c>
       <c r="E39" t="n">
-        <v>8203.8740292479</v>
+        <v>8347.00213024699</v>
       </c>
       <c r="F39" t="n">
-        <v>7707.714103574419</v>
+        <v>7790.495311422756</v>
       </c>
       <c r="G39" t="n">
-        <v>7707.714103574419</v>
+        <v>7790.495311422756</v>
       </c>
       <c r="H39" t="n">
-        <v>-625.0901147478908</v>
+        <v>-618.2552080299778</v>
       </c>
       <c r="I39" t="n">
-        <v>-625.0901147478908</v>
+        <v>-618.2552080299778</v>
       </c>
       <c r="J39" t="n">
-        <v>-625.0901147478908</v>
+        <v>-618.2552080299778</v>
       </c>
       <c r="K39" t="n">
-        <v>-625.0901147478908</v>
+        <v>-618.2552080299778</v>
       </c>
       <c r="L39" t="n">
-        <v>-625.0901147478908</v>
+        <v>-618.2552080299778</v>
       </c>
       <c r="M39" t="n">
-        <v>-625.0901147478908</v>
+        <v>-618.2552080299778</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>7082.623988826528</v>
+        <v>7172.240103392779</v>
       </c>
     </row>
     <row r="40">
@@ -2541,37 +2541,37 @@
         <v>43891</v>
       </c>
       <c r="C40" t="n">
-        <v>7882.47199233462</v>
+        <v>7950.262361310132</v>
       </c>
       <c r="D40" t="n">
-        <v>6769.757074922184</v>
+        <v>6818.199621796351</v>
       </c>
       <c r="E40" t="n">
-        <v>8874.259574614469</v>
+        <v>9083.688114203609</v>
       </c>
       <c r="F40" t="n">
-        <v>7882.47199233462</v>
+        <v>7950.262361310132</v>
       </c>
       <c r="G40" t="n">
-        <v>7882.47199233462</v>
+        <v>7950.262361310132</v>
       </c>
       <c r="H40" t="n">
-        <v>-19.76224650896193</v>
+        <v>2.515063877239887</v>
       </c>
       <c r="I40" t="n">
-        <v>-19.76224650896193</v>
+        <v>2.515063877239887</v>
       </c>
       <c r="J40" t="n">
-        <v>-19.76224650896193</v>
+        <v>2.515063877239887</v>
       </c>
       <c r="K40" t="n">
-        <v>-19.76224650896193</v>
+        <v>2.515063877239887</v>
       </c>
       <c r="L40" t="n">
-        <v>-19.76224650896193</v>
+        <v>2.515063877239887</v>
       </c>
       <c r="M40" t="n">
-        <v>-19.76224650896193</v>
+        <v>2.515063877239887</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>7862.709745825659</v>
+        <v>7952.777425187373</v>
       </c>
     </row>
     <row r="41">
@@ -2594,37 +2594,37 @@
         <v>43922</v>
       </c>
       <c r="C41" t="n">
-        <v>8069.282149285178</v>
+        <v>8121.04782843112</v>
       </c>
       <c r="D41" t="n">
-        <v>6859.215420366765</v>
+        <v>6781.264089059981</v>
       </c>
       <c r="E41" t="n">
-        <v>8969.454137269342</v>
+        <v>9024.033489739277</v>
       </c>
       <c r="F41" t="n">
-        <v>8069.282149285178</v>
+        <v>8121.04782843112</v>
       </c>
       <c r="G41" t="n">
-        <v>8069.282149285178</v>
+        <v>8121.04782843112</v>
       </c>
       <c r="H41" t="n">
-        <v>-184.2443236031672</v>
+        <v>-171.5928737789593</v>
       </c>
       <c r="I41" t="n">
-        <v>-184.2443236031672</v>
+        <v>-171.5928737789593</v>
       </c>
       <c r="J41" t="n">
-        <v>-184.2443236031672</v>
+        <v>-171.5928737789593</v>
       </c>
       <c r="K41" t="n">
-        <v>-184.2443236031672</v>
+        <v>-171.5928737789593</v>
       </c>
       <c r="L41" t="n">
-        <v>-184.2443236031672</v>
+        <v>-171.5928737789593</v>
       </c>
       <c r="M41" t="n">
-        <v>-184.2443236031672</v>
+        <v>-171.5928737789593</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>7885.037825682011</v>
+        <v>7949.454954652161</v>
       </c>
     </row>
     <row r="42">
@@ -2647,37 +2647,37 @@
         <v>43952</v>
       </c>
       <c r="C42" t="n">
-        <v>8250.066172161929</v>
+        <v>8286.331988045056</v>
       </c>
       <c r="D42" t="n">
-        <v>6851.470667476206</v>
+        <v>6802.072794482732</v>
       </c>
       <c r="E42" t="n">
-        <v>9055.587759670989</v>
+        <v>9139.666213197755</v>
       </c>
       <c r="F42" t="n">
-        <v>8250.066172161929</v>
+        <v>8286.331988045056</v>
       </c>
       <c r="G42" t="n">
-        <v>8250.066172161929</v>
+        <v>8286.331988045056</v>
       </c>
       <c r="H42" t="n">
-        <v>-351.9402386554339</v>
+        <v>-314.2534424860925</v>
       </c>
       <c r="I42" t="n">
-        <v>-351.9402386554339</v>
+        <v>-314.2534424860925</v>
       </c>
       <c r="J42" t="n">
-        <v>-351.9402386554339</v>
+        <v>-314.2534424860925</v>
       </c>
       <c r="K42" t="n">
-        <v>-351.9402386554339</v>
+        <v>-314.2534424860925</v>
       </c>
       <c r="L42" t="n">
-        <v>-351.9402386554339</v>
+        <v>-314.2534424860925</v>
       </c>
       <c r="M42" t="n">
-        <v>-351.9402386554339</v>
+        <v>-314.2534424860925</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>7898.125933506495</v>
+        <v>7972.078545558964</v>
       </c>
     </row>
     <row r="43">
@@ -2700,37 +2700,37 @@
         <v>43983</v>
       </c>
       <c r="C43" t="n">
-        <v>8436.876329134568</v>
+        <v>8457.125619646124</v>
       </c>
       <c r="D43" t="n">
-        <v>7457.108839060415</v>
+        <v>7487.596276879483</v>
       </c>
       <c r="E43" t="n">
-        <v>9680.771100257702</v>
+        <v>9767.438900165022</v>
       </c>
       <c r="F43" t="n">
-        <v>8436.876329134568</v>
+        <v>8457.125619646124</v>
       </c>
       <c r="G43" t="n">
-        <v>8436.876329134568</v>
+        <v>8457.125619646124</v>
       </c>
       <c r="H43" t="n">
-        <v>166.2876134138616</v>
+        <v>165.8396564097568</v>
       </c>
       <c r="I43" t="n">
-        <v>166.2876134138616</v>
+        <v>165.8396564097568</v>
       </c>
       <c r="J43" t="n">
-        <v>166.2876134138616</v>
+        <v>165.8396564097568</v>
       </c>
       <c r="K43" t="n">
-        <v>166.2876134138616</v>
+        <v>165.8396564097568</v>
       </c>
       <c r="L43" t="n">
-        <v>166.2876134138616</v>
+        <v>165.8396564097568</v>
       </c>
       <c r="M43" t="n">
-        <v>166.2876134138616</v>
+        <v>165.8396564097568</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>8603.16394254843</v>
+        <v>8622.96527605588</v>
       </c>
     </row>
     <row r="44">
@@ -2753,37 +2753,37 @@
         <v>44013</v>
       </c>
       <c r="C44" t="n">
-        <v>8617.66035201599</v>
+        <v>8622.4097792433</v>
       </c>
       <c r="D44" t="n">
-        <v>7642.173061843931</v>
+        <v>7570.719926774843</v>
       </c>
       <c r="E44" t="n">
-        <v>9650.919606108258</v>
+        <v>9854.140466207267</v>
       </c>
       <c r="F44" t="n">
-        <v>8617.66035201599</v>
+        <v>8622.4097792433</v>
       </c>
       <c r="G44" t="n">
-        <v>8617.66035201599</v>
+        <v>8622.4097792433</v>
       </c>
       <c r="H44" t="n">
-        <v>69.39221975516168</v>
+        <v>88.60427798137712</v>
       </c>
       <c r="I44" t="n">
-        <v>69.39221975516168</v>
+        <v>88.60427798137712</v>
       </c>
       <c r="J44" t="n">
-        <v>69.39221975516168</v>
+        <v>88.60427798137712</v>
       </c>
       <c r="K44" t="n">
-        <v>69.39221975516168</v>
+        <v>88.60427798137712</v>
       </c>
       <c r="L44" t="n">
-        <v>69.39221975516168</v>
+        <v>88.60427798137712</v>
       </c>
       <c r="M44" t="n">
-        <v>69.39221975516168</v>
+        <v>88.60427798137712</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>8687.052571771152</v>
+        <v>8711.014057224678</v>
       </c>
     </row>
     <row r="45">
@@ -2806,37 +2806,37 @@
         <v>44044</v>
       </c>
       <c r="C45" t="n">
-        <v>8804.47050899346</v>
+        <v>8793.203410827051</v>
       </c>
       <c r="D45" t="n">
-        <v>8309.290551940225</v>
+        <v>8325.925739056825</v>
       </c>
       <c r="E45" t="n">
-        <v>10509.79928385286</v>
+        <v>10633.12460912286</v>
       </c>
       <c r="F45" t="n">
-        <v>8804.47050899346</v>
+        <v>8793.203410827051</v>
       </c>
       <c r="G45" t="n">
-        <v>8804.47050899346</v>
+        <v>8793.203410827051</v>
       </c>
       <c r="H45" t="n">
-        <v>640.7379239569043</v>
+        <v>649.7089484651275</v>
       </c>
       <c r="I45" t="n">
-        <v>640.7379239569043</v>
+        <v>649.7089484651275</v>
       </c>
       <c r="J45" t="n">
-        <v>640.7379239569043</v>
+        <v>649.7089484651275</v>
       </c>
       <c r="K45" t="n">
-        <v>640.7379239569043</v>
+        <v>649.7089484651275</v>
       </c>
       <c r="L45" t="n">
-        <v>640.7379239569043</v>
+        <v>649.7089484651275</v>
       </c>
       <c r="M45" t="n">
-        <v>640.7379239569043</v>
+        <v>649.7089484651275</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>9445.208432950363</v>
+        <v>9442.912359292179</v>
       </c>
     </row>
     <row r="46">
@@ -2859,37 +2859,37 @@
         <v>44075</v>
       </c>
       <c r="C46" t="n">
-        <v>8991.28066600515</v>
+        <v>8963.997042358678</v>
       </c>
       <c r="D46" t="n">
-        <v>8906.315659009941</v>
+        <v>8852.5122807235</v>
       </c>
       <c r="E46" t="n">
-        <v>11097.57714853873</v>
+        <v>11020.59383642572</v>
       </c>
       <c r="F46" t="n">
-        <v>8991.28066600515</v>
+        <v>8963.997042358678</v>
       </c>
       <c r="G46" t="n">
-        <v>8991.28066600515</v>
+        <v>8963.997042358678</v>
       </c>
       <c r="H46" t="n">
-        <v>975.3178700767247</v>
+        <v>981.0529628428226</v>
       </c>
       <c r="I46" t="n">
-        <v>975.3178700767247</v>
+        <v>981.0529628428226</v>
       </c>
       <c r="J46" t="n">
-        <v>975.3178700767247</v>
+        <v>981.0529628428226</v>
       </c>
       <c r="K46" t="n">
-        <v>975.3178700767247</v>
+        <v>981.0529628428226</v>
       </c>
       <c r="L46" t="n">
-        <v>975.3178700767247</v>
+        <v>981.0529628428226</v>
       </c>
       <c r="M46" t="n">
-        <v>975.3178700767247</v>
+        <v>981.0529628428226</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>9966.598536081874</v>
+        <v>9945.050005201501</v>
       </c>
     </row>
     <row r="47">
@@ -2912,37 +2912,37 @@
         <v>44105</v>
       </c>
       <c r="C47" t="n">
-        <v>9172.064688919691</v>
+        <v>9129.281201905414</v>
       </c>
       <c r="D47" t="n">
-        <v>8798.330823466818</v>
+        <v>8733.296159369802</v>
       </c>
       <c r="E47" t="n">
-        <v>10982.08883045137</v>
+        <v>11012.23708910173</v>
       </c>
       <c r="F47" t="n">
-        <v>9172.064688919691</v>
+        <v>9129.281201905414</v>
       </c>
       <c r="G47" t="n">
-        <v>9172.064688919691</v>
+        <v>9129.281201905414</v>
       </c>
       <c r="H47" t="n">
-        <v>761.6166679467184</v>
+        <v>789.4082604249359</v>
       </c>
       <c r="I47" t="n">
-        <v>761.6166679467184</v>
+        <v>789.4082604249359</v>
       </c>
       <c r="J47" t="n">
-        <v>761.6166679467184</v>
+        <v>789.4082604249359</v>
       </c>
       <c r="K47" t="n">
-        <v>761.6166679467184</v>
+        <v>789.4082604249359</v>
       </c>
       <c r="L47" t="n">
-        <v>761.6166679467184</v>
+        <v>789.4082604249359</v>
       </c>
       <c r="M47" t="n">
-        <v>761.6166679467184</v>
+        <v>789.4082604249359</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>9933.681356866409</v>
+        <v>9918.689462330351</v>
       </c>
     </row>
     <row r="48">
@@ -2965,37 +2965,37 @@
         <v>44136</v>
       </c>
       <c r="C48" t="n">
-        <v>9358.87484593859</v>
+        <v>9300.074833389866</v>
       </c>
       <c r="D48" t="n">
-        <v>7950.131994242859</v>
+        <v>7942.785509354429</v>
       </c>
       <c r="E48" t="n">
-        <v>10128.92724001106</v>
+        <v>10280.50347600877</v>
       </c>
       <c r="F48" t="n">
-        <v>9358.87484593859</v>
+        <v>9300.074833389866</v>
       </c>
       <c r="G48" t="n">
-        <v>9358.87484593859</v>
+        <v>9300.074833389866</v>
       </c>
       <c r="H48" t="n">
-        <v>-294.1994759402201</v>
+        <v>-220.556643300658</v>
       </c>
       <c r="I48" t="n">
-        <v>-294.1994759402201</v>
+        <v>-220.556643300658</v>
       </c>
       <c r="J48" t="n">
-        <v>-294.1994759402201</v>
+        <v>-220.556643300658</v>
       </c>
       <c r="K48" t="n">
-        <v>-294.1994759402201</v>
+        <v>-220.556643300658</v>
       </c>
       <c r="L48" t="n">
-        <v>-294.1994759402201</v>
+        <v>-220.556643300658</v>
       </c>
       <c r="M48" t="n">
-        <v>-294.1994759402201</v>
+        <v>-220.556643300658</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>9064.675369998369</v>
+        <v>9079.518190089208</v>
       </c>
     </row>
     <row r="49">
@@ -3018,37 +3018,37 @@
         <v>44166</v>
       </c>
       <c r="C49" t="n">
-        <v>9539.658868860108</v>
+        <v>9465.358992890951</v>
       </c>
       <c r="D49" t="n">
-        <v>8041.729719258821</v>
+        <v>7999.498023750633</v>
       </c>
       <c r="E49" t="n">
-        <v>10206.6315810345</v>
+        <v>10354.87954530537</v>
       </c>
       <c r="F49" t="n">
-        <v>9539.658868860108</v>
+        <v>9465.358992890951</v>
       </c>
       <c r="G49" t="n">
-        <v>9539.658868860108</v>
+        <v>9465.358992890951</v>
       </c>
       <c r="H49" t="n">
-        <v>-435.4314585140457</v>
+        <v>-307.2900610858249</v>
       </c>
       <c r="I49" t="n">
-        <v>-435.4314585140457</v>
+        <v>-307.2900610858249</v>
       </c>
       <c r="J49" t="n">
-        <v>-435.4314585140457</v>
+        <v>-307.2900610858249</v>
       </c>
       <c r="K49" t="n">
-        <v>-435.4314585140457</v>
+        <v>-307.2900610858249</v>
       </c>
       <c r="L49" t="n">
-        <v>-435.4314585140457</v>
+        <v>-307.2900610858249</v>
       </c>
       <c r="M49" t="n">
-        <v>-435.4314585140457</v>
+        <v>-307.2900610858249</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>9104.227410346062</v>
+        <v>9158.068931805126</v>
       </c>
     </row>
     <row r="50">
@@ -3071,37 +3071,37 @@
         <v>44197</v>
       </c>
       <c r="C50" t="n">
-        <v>9726.469025812969</v>
+        <v>9636.152624313872</v>
       </c>
       <c r="D50" t="n">
-        <v>8481.101968750376</v>
+        <v>8583.544814067949</v>
       </c>
       <c r="E50" t="n">
-        <v>10629.33413194856</v>
+        <v>10843.8363585858</v>
       </c>
       <c r="F50" t="n">
-        <v>9726.469025812969</v>
+        <v>9636.152624313872</v>
       </c>
       <c r="G50" t="n">
-        <v>9726.469025812969</v>
+        <v>9636.152624313872</v>
       </c>
       <c r="H50" t="n">
-        <v>-140.04125269505</v>
+        <v>3.163860038357659</v>
       </c>
       <c r="I50" t="n">
-        <v>-140.04125269505</v>
+        <v>3.163860038357659</v>
       </c>
       <c r="J50" t="n">
-        <v>-140.04125269505</v>
+        <v>3.163860038357659</v>
       </c>
       <c r="K50" t="n">
-        <v>-140.04125269505</v>
+        <v>3.163860038357659</v>
       </c>
       <c r="L50" t="n">
-        <v>-140.04125269505</v>
+        <v>3.163860038357659</v>
       </c>
       <c r="M50" t="n">
-        <v>-140.04125269505</v>
+        <v>3.163860038357659</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>9586.427773117919</v>
+        <v>9639.31648435223</v>
       </c>
     </row>
     <row r="51">
@@ -3124,37 +3124,37 @@
         <v>44228</v>
       </c>
       <c r="C51" t="n">
-        <v>9913.279182765831</v>
+        <v>9806.946255736793</v>
       </c>
       <c r="D51" t="n">
-        <v>7773.268483478855</v>
+        <v>7782.871209176725</v>
       </c>
       <c r="E51" t="n">
-        <v>10046.25340614431</v>
+        <v>10142.50510727384</v>
       </c>
       <c r="F51" t="n">
-        <v>9913.279182765831</v>
+        <v>9806.946255736793</v>
       </c>
       <c r="G51" t="n">
-        <v>9913.279182765831</v>
+        <v>9806.946255736793</v>
       </c>
       <c r="H51" t="n">
-        <v>-972.5329263743458</v>
+        <v>-801.0709538511043</v>
       </c>
       <c r="I51" t="n">
-        <v>-972.5329263743458</v>
+        <v>-801.0709538511043</v>
       </c>
       <c r="J51" t="n">
-        <v>-972.5329263743458</v>
+        <v>-801.0709538511043</v>
       </c>
       <c r="K51" t="n">
-        <v>-972.5329263743458</v>
+        <v>-801.0709538511043</v>
       </c>
       <c r="L51" t="n">
-        <v>-972.5329263743458</v>
+        <v>-801.0709538511043</v>
       </c>
       <c r="M51" t="n">
-        <v>-972.5329263743458</v>
+        <v>-801.0709538511043</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>8940.746256391485</v>
+        <v>9005.87530188569</v>
       </c>
     </row>
     <row r="52">
@@ -3177,37 +3177,37 @@
         <v>44256</v>
       </c>
       <c r="C52" t="n">
-        <v>10082.01082115611</v>
+        <v>9961.211471161101</v>
       </c>
       <c r="D52" t="n">
-        <v>8980.04108860717</v>
+        <v>8903.423439516177</v>
       </c>
       <c r="E52" t="n">
-        <v>11169.08101686219</v>
+        <v>11230.45364721118</v>
       </c>
       <c r="F52" t="n">
-        <v>10082.01082115611</v>
+        <v>9961.211471161101</v>
       </c>
       <c r="G52" t="n">
-        <v>10082.01082115611</v>
+        <v>9961.211471161101</v>
       </c>
       <c r="H52" t="n">
-        <v>17.34927479727684</v>
+        <v>100.4015840816512</v>
       </c>
       <c r="I52" t="n">
-        <v>17.34927479727684</v>
+        <v>100.4015840816512</v>
       </c>
       <c r="J52" t="n">
-        <v>17.34927479727684</v>
+        <v>100.4015840816512</v>
       </c>
       <c r="K52" t="n">
-        <v>17.34927479727684</v>
+        <v>100.4015840816512</v>
       </c>
       <c r="L52" t="n">
-        <v>17.34927479727684</v>
+        <v>100.4015840816512</v>
       </c>
       <c r="M52" t="n">
-        <v>17.34927479727684</v>
+        <v>100.4015840816512</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>10099.36009595339</v>
+        <v>10061.61305524275</v>
       </c>
     </row>
     <row r="53">
@@ -3230,37 +3230,37 @@
         <v>44287</v>
       </c>
       <c r="C53" t="n">
-        <v>10268.82084937392</v>
+        <v>10132.00510252373</v>
       </c>
       <c r="D53" t="n">
-        <v>8780.18294039707</v>
+        <v>8623.39040584302</v>
       </c>
       <c r="E53" t="n">
-        <v>10968.65374505701</v>
+        <v>10834.17846657792</v>
       </c>
       <c r="F53" t="n">
-        <v>10268.82084937392</v>
+        <v>10132.00510252373</v>
       </c>
       <c r="G53" t="n">
-        <v>10268.82084937392</v>
+        <v>10132.00510252373</v>
       </c>
       <c r="H53" t="n">
-        <v>-404.9706285667243</v>
+        <v>-317.5872756285593</v>
       </c>
       <c r="I53" t="n">
-        <v>-404.9706285667243</v>
+        <v>-317.5872756285593</v>
       </c>
       <c r="J53" t="n">
-        <v>-404.9706285667243</v>
+        <v>-317.5872756285593</v>
       </c>
       <c r="K53" t="n">
-        <v>-404.9706285667243</v>
+        <v>-317.5872756285593</v>
       </c>
       <c r="L53" t="n">
-        <v>-404.9706285667243</v>
+        <v>-317.5872756285593</v>
       </c>
       <c r="M53" t="n">
-        <v>-404.9706285667243</v>
+        <v>-317.5872756285593</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>9863.850220807195</v>
+        <v>9814.417826895167</v>
       </c>
     </row>
     <row r="54">
@@ -3283,37 +3283,37 @@
         <v>44317</v>
       </c>
       <c r="C54" t="n">
-        <v>10449.60390995892</v>
+        <v>10297.28594952772</v>
       </c>
       <c r="D54" t="n">
-        <v>9049.339228066998</v>
+        <v>8888.123751817557</v>
       </c>
       <c r="E54" t="n">
-        <v>11219.39708116474</v>
+        <v>11207.5319040348</v>
       </c>
       <c r="F54" t="n">
-        <v>10449.60390995892</v>
+        <v>10297.28594952772</v>
       </c>
       <c r="G54" t="n">
-        <v>10449.60390995892</v>
+        <v>10297.28594952772</v>
       </c>
       <c r="H54" t="n">
-        <v>-312.6359300970943</v>
+        <v>-231.8380244866106</v>
       </c>
       <c r="I54" t="n">
-        <v>-312.6359300970943</v>
+        <v>-231.8380244866106</v>
       </c>
       <c r="J54" t="n">
-        <v>-312.6359300970943</v>
+        <v>-231.8380244866106</v>
       </c>
       <c r="K54" t="n">
-        <v>-312.6359300970943</v>
+        <v>-231.8380244866106</v>
       </c>
       <c r="L54" t="n">
-        <v>-312.6359300970943</v>
+        <v>-231.8380244866106</v>
       </c>
       <c r="M54" t="n">
-        <v>-312.6359300970943</v>
+        <v>-231.8380244866106</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>10136.96797986183</v>
+        <v>10065.44792504111</v>
       </c>
     </row>
     <row r="55">
@@ -3336,37 +3336,37 @@
         <v>44348</v>
       </c>
       <c r="C55" t="n">
-        <v>10636.41307256342</v>
+        <v>10468.07615809852</v>
       </c>
       <c r="D55" t="n">
-        <v>9679.616266842369</v>
+        <v>9302.814348276412</v>
       </c>
       <c r="E55" t="n">
-        <v>12007.91050419215</v>
+        <v>11561.73548302933</v>
       </c>
       <c r="F55" t="n">
-        <v>10636.41307256342</v>
+        <v>10468.07615809852</v>
       </c>
       <c r="G55" t="n">
-        <v>10636.41307256342</v>
+        <v>10468.07615809852</v>
       </c>
       <c r="H55" t="n">
-        <v>154.3552940478646</v>
+        <v>-11.61822424234138</v>
       </c>
       <c r="I55" t="n">
-        <v>154.3552940478646</v>
+        <v>-11.61822424234138</v>
       </c>
       <c r="J55" t="n">
-        <v>154.3552940478646</v>
+        <v>-11.61822424234138</v>
       </c>
       <c r="K55" t="n">
-        <v>154.3552940478646</v>
+        <v>-11.61822424234138</v>
       </c>
       <c r="L55" t="n">
-        <v>154.3552940478646</v>
+        <v>-11.61822424234138</v>
       </c>
       <c r="M55" t="n">
-        <v>154.3552940478646</v>
+        <v>-11.61822424234138</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>10790.76836661129</v>
+        <v>10456.45793385618</v>
       </c>
     </row>
     <row r="56">
@@ -3389,37 +3389,37 @@
         <v>44378</v>
       </c>
       <c r="C56" t="n">
-        <v>10817.19613314842</v>
+        <v>10633.35700510252</v>
       </c>
       <c r="D56" t="n">
-        <v>9921.040025491086</v>
+        <v>9629.414494452309</v>
       </c>
       <c r="E56" t="n">
-        <v>12190.17350111174</v>
+        <v>11939.3355294774</v>
       </c>
       <c r="F56" t="n">
-        <v>10817.19613314842</v>
+        <v>10633.35700510252</v>
       </c>
       <c r="G56" t="n">
-        <v>10817.19613314842</v>
+        <v>10633.35700510252</v>
       </c>
       <c r="H56" t="n">
-        <v>218.4662886805317</v>
+        <v>243.8287704192896</v>
       </c>
       <c r="I56" t="n">
-        <v>218.4662886805317</v>
+        <v>243.8287704192896</v>
       </c>
       <c r="J56" t="n">
-        <v>218.4662886805317</v>
+        <v>243.8287704192896</v>
       </c>
       <c r="K56" t="n">
-        <v>218.4662886805317</v>
+        <v>243.8287704192896</v>
       </c>
       <c r="L56" t="n">
-        <v>218.4662886805317</v>
+        <v>243.8287704192896</v>
       </c>
       <c r="M56" t="n">
-        <v>218.4662886805317</v>
+        <v>243.8287704192896</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>11035.66242182895</v>
+        <v>10877.18577552181</v>
       </c>
     </row>
     <row r="57">
@@ -3442,37 +3442,37 @@
         <v>44409</v>
       </c>
       <c r="C57" t="n">
-        <v>11004.00529575293</v>
+        <v>10804.14721367332</v>
       </c>
       <c r="D57" t="n">
-        <v>10600.5856448808</v>
+        <v>10432.68284812556</v>
       </c>
       <c r="E57" t="n">
-        <v>12742.26157515151</v>
+        <v>12682.85501760506</v>
       </c>
       <c r="F57" t="n">
-        <v>11004.00529575293</v>
+        <v>10804.14721367332</v>
       </c>
       <c r="G57" t="n">
-        <v>11004.00529575293</v>
+        <v>10804.14721367332</v>
       </c>
       <c r="H57" t="n">
-        <v>743.2265592981096</v>
+        <v>776.0799100523255</v>
       </c>
       <c r="I57" t="n">
-        <v>743.2265592981096</v>
+        <v>776.0799100523255</v>
       </c>
       <c r="J57" t="n">
-        <v>743.2265592981096</v>
+        <v>776.0799100523255</v>
       </c>
       <c r="K57" t="n">
-        <v>743.2265592981096</v>
+        <v>776.0799100523255</v>
       </c>
       <c r="L57" t="n">
-        <v>743.2265592981096</v>
+        <v>776.0799100523255</v>
       </c>
       <c r="M57" t="n">
-        <v>743.2265592981096</v>
+        <v>776.0799100523255</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>11747.23185505104</v>
+        <v>11580.22712372565</v>
       </c>
     </row>
     <row r="58">
@@ -3495,37 +3495,37 @@
         <v>44440</v>
       </c>
       <c r="C58" t="n">
-        <v>11190.81445835743</v>
+        <v>10974.93742224412</v>
       </c>
       <c r="D58" t="n">
-        <v>10825.10893521052</v>
+        <v>10589.33646964813</v>
       </c>
       <c r="E58" t="n">
-        <v>12977.42597924785</v>
+        <v>12882.41964800133</v>
       </c>
       <c r="F58" t="n">
-        <v>11190.81445835743</v>
+        <v>10974.93742224412</v>
       </c>
       <c r="G58" t="n">
-        <v>11190.81445835743</v>
+        <v>10974.93742224412</v>
       </c>
       <c r="H58" t="n">
-        <v>708.0644543152472</v>
+        <v>750.2710413690078</v>
       </c>
       <c r="I58" t="n">
-        <v>708.0644543152472</v>
+        <v>750.2710413690078</v>
       </c>
       <c r="J58" t="n">
-        <v>708.0644543152472</v>
+        <v>750.2710413690078</v>
       </c>
       <c r="K58" t="n">
-        <v>708.0644543152472</v>
+        <v>750.2710413690078</v>
       </c>
       <c r="L58" t="n">
-        <v>708.0644543152472</v>
+        <v>750.2710413690078</v>
       </c>
       <c r="M58" t="n">
-        <v>708.0644543152472</v>
+        <v>750.2710413690078</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>11898.87891267267</v>
+        <v>11725.20846361313</v>
       </c>
     </row>
     <row r="59">
@@ -3548,37 +3548,37 @@
         <v>44470</v>
       </c>
       <c r="C59" t="n">
-        <v>11371.59751894243</v>
+        <v>11140.21826924812</v>
       </c>
       <c r="D59" t="n">
-        <v>11072.74959320767</v>
+        <v>10796.34323140113</v>
       </c>
       <c r="E59" t="n">
-        <v>13258.79748643127</v>
+        <v>13031.00038075423</v>
       </c>
       <c r="F59" t="n">
-        <v>11371.59751894243</v>
+        <v>11140.21826924812</v>
       </c>
       <c r="G59" t="n">
-        <v>11371.59751894243</v>
+        <v>11140.21826924812</v>
       </c>
       <c r="H59" t="n">
-        <v>791.8366892475465</v>
+        <v>850.6015833684019</v>
       </c>
       <c r="I59" t="n">
-        <v>791.8366892475465</v>
+        <v>850.6015833684019</v>
       </c>
       <c r="J59" t="n">
-        <v>791.8366892475465</v>
+        <v>850.6015833684019</v>
       </c>
       <c r="K59" t="n">
-        <v>791.8366892475465</v>
+        <v>850.6015833684019</v>
       </c>
       <c r="L59" t="n">
-        <v>791.8366892475465</v>
+        <v>850.6015833684019</v>
       </c>
       <c r="M59" t="n">
-        <v>791.8366892475465</v>
+        <v>850.6015833684019</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>12163.43420818997</v>
+        <v>11990.81985261652</v>
       </c>
     </row>
     <row r="60">
@@ -3601,37 +3601,37 @@
         <v>44501</v>
       </c>
       <c r="C60" t="n">
-        <v>11558.40668154693</v>
+        <v>11311.00847781892</v>
       </c>
       <c r="D60" t="n">
-        <v>10308.43033214919</v>
+        <v>10061.2536092229</v>
       </c>
       <c r="E60" t="n">
-        <v>12446.51864827419</v>
+        <v>12326.29338898367</v>
       </c>
       <c r="F60" t="n">
-        <v>11558.40668154693</v>
+        <v>11311.00847781892</v>
       </c>
       <c r="G60" t="n">
-        <v>11558.40668154693</v>
+        <v>11311.00847781892</v>
       </c>
       <c r="H60" t="n">
-        <v>-209.2690547702224</v>
+        <v>-129.499626656606</v>
       </c>
       <c r="I60" t="n">
-        <v>-209.2690547702224</v>
+        <v>-129.499626656606</v>
       </c>
       <c r="J60" t="n">
-        <v>-209.2690547702224</v>
+        <v>-129.499626656606</v>
       </c>
       <c r="K60" t="n">
-        <v>-209.2690547702224</v>
+        <v>-129.499626656606</v>
       </c>
       <c r="L60" t="n">
-        <v>-209.2690547702224</v>
+        <v>-129.499626656606</v>
       </c>
       <c r="M60" t="n">
-        <v>-209.2690547702224</v>
+        <v>-129.499626656606</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>11349.13762677671</v>
+        <v>11181.50885116231</v>
       </c>
     </row>
     <row r="61">
@@ -3654,37 +3654,37 @@
         <v>44531</v>
       </c>
       <c r="C61" t="n">
-        <v>11739.18974213193</v>
+        <v>11476.28932482292</v>
       </c>
       <c r="D61" t="n">
-        <v>10138.20693819245</v>
+        <v>9920.551298115686</v>
       </c>
       <c r="E61" t="n">
-        <v>12318.70223427282</v>
+        <v>12327.86230500583</v>
       </c>
       <c r="F61" t="n">
-        <v>11739.18974213193</v>
+        <v>11476.28932482292</v>
       </c>
       <c r="G61" t="n">
-        <v>11739.18974213193</v>
+        <v>11476.28932482292</v>
       </c>
       <c r="H61" t="n">
-        <v>-463.6402865306769</v>
+        <v>-361.0715966978876</v>
       </c>
       <c r="I61" t="n">
-        <v>-463.6402865306769</v>
+        <v>-361.0715966978876</v>
       </c>
       <c r="J61" t="n">
-        <v>-463.6402865306769</v>
+        <v>-361.0715966978876</v>
       </c>
       <c r="K61" t="n">
-        <v>-463.6402865306769</v>
+        <v>-361.0715966978876</v>
       </c>
       <c r="L61" t="n">
-        <v>-463.6402865306769</v>
+        <v>-361.0715966978876</v>
       </c>
       <c r="M61" t="n">
-        <v>-463.6402865306769</v>
+        <v>-361.0715966978876</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>11275.54945560125</v>
+        <v>11115.21772812503</v>
       </c>
     </row>
     <row r="62">
@@ -3707,37 +3707,37 @@
         <v>44562</v>
       </c>
       <c r="C62" t="n">
-        <v>11925.99890473643</v>
+        <v>11647.07953339371</v>
       </c>
       <c r="D62" t="n">
-        <v>10582.74933097907</v>
+        <v>10337.92288999388</v>
       </c>
       <c r="E62" t="n">
-        <v>12860.77596633557</v>
+        <v>12723.27770435813</v>
       </c>
       <c r="F62" t="n">
-        <v>11925.99890473643</v>
+        <v>11647.07953339371</v>
       </c>
       <c r="G62" t="n">
-        <v>11925.99890473643</v>
+        <v>11647.07953339371</v>
       </c>
       <c r="H62" t="n">
-        <v>-180.4990084318042</v>
+        <v>-76.56028568819268</v>
       </c>
       <c r="I62" t="n">
-        <v>-180.4990084318042</v>
+        <v>-76.56028568819268</v>
       </c>
       <c r="J62" t="n">
-        <v>-180.4990084318042</v>
+        <v>-76.56028568819268</v>
       </c>
       <c r="K62" t="n">
-        <v>-180.4990084318042</v>
+        <v>-76.56028568819268</v>
       </c>
       <c r="L62" t="n">
-        <v>-180.4990084318042</v>
+        <v>-76.56028568819268</v>
       </c>
       <c r="M62" t="n">
-        <v>-180.4990084318042</v>
+        <v>-76.56028568819268</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>11745.49989630463</v>
+        <v>11570.51924770552</v>
       </c>
     </row>
     <row r="63">
@@ -3760,37 +3760,37 @@
         <v>44593</v>
       </c>
       <c r="C63" t="n">
-        <v>12112.80806734094</v>
+        <v>11817.86974196451</v>
       </c>
       <c r="D63" t="n">
-        <v>10142.46194665848</v>
+        <v>9935.574725150213</v>
       </c>
       <c r="E63" t="n">
-        <v>12347.79851752956</v>
+        <v>12220.72681351715</v>
       </c>
       <c r="F63" t="n">
-        <v>12112.80806734094</v>
+        <v>11817.86974196451</v>
       </c>
       <c r="G63" t="n">
-        <v>12112.80806734094</v>
+        <v>11817.86974196451</v>
       </c>
       <c r="H63" t="n">
-        <v>-857.5502291589576</v>
+        <v>-742.6860809431835</v>
       </c>
       <c r="I63" t="n">
-        <v>-857.5502291589576</v>
+        <v>-742.6860809431835</v>
       </c>
       <c r="J63" t="n">
-        <v>-857.5502291589576</v>
+        <v>-742.6860809431835</v>
       </c>
       <c r="K63" t="n">
-        <v>-857.5502291589576</v>
+        <v>-742.6860809431835</v>
       </c>
       <c r="L63" t="n">
-        <v>-857.5502291589576</v>
+        <v>-742.6860809431835</v>
       </c>
       <c r="M63" t="n">
-        <v>-857.5502291589576</v>
+        <v>-742.6860809431835</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>11255.25783818198</v>
+        <v>11075.18366102133</v>
       </c>
     </row>
     <row r="64">
@@ -3813,37 +3813,37 @@
         <v>44621</v>
       </c>
       <c r="C64" t="n">
-        <v>12281.53892388694</v>
+        <v>11972.13186583491</v>
       </c>
       <c r="D64" t="n">
-        <v>11201.97880309723</v>
+        <v>11018.63377692066</v>
       </c>
       <c r="E64" t="n">
-        <v>13439.94300729759</v>
+        <v>13416.20067921154</v>
       </c>
       <c r="F64" t="n">
-        <v>12281.53892388694</v>
+        <v>11972.13186583491</v>
       </c>
       <c r="G64" t="n">
-        <v>12281.53892388694</v>
+        <v>11972.13186583491</v>
       </c>
       <c r="H64" t="n">
-        <v>49.75003524661953</v>
+        <v>195.3308295380982</v>
       </c>
       <c r="I64" t="n">
-        <v>49.75003524661953</v>
+        <v>195.3308295380982</v>
       </c>
       <c r="J64" t="n">
-        <v>49.75003524661953</v>
+        <v>195.3308295380982</v>
       </c>
       <c r="K64" t="n">
-        <v>49.75003524661953</v>
+        <v>195.3308295380982</v>
       </c>
       <c r="L64" t="n">
-        <v>49.75003524661953</v>
+        <v>195.3308295380982</v>
       </c>
       <c r="M64" t="n">
-        <v>49.75003524661953</v>
+        <v>195.3308295380982</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>12331.28895913356</v>
+        <v>12167.46269537301</v>
       </c>
     </row>
     <row r="65">
@@ -3866,37 +3866,37 @@
         <v>44652</v>
       </c>
       <c r="C65" t="n">
-        <v>12468.34808649144</v>
+        <v>12142.92207440571</v>
       </c>
       <c r="D65" t="n">
-        <v>10752.03482051556</v>
+        <v>10526.87194758603</v>
       </c>
       <c r="E65" t="n">
-        <v>12909.03186629173</v>
+        <v>12790.12639393724</v>
       </c>
       <c r="F65" t="n">
-        <v>12468.34808649144</v>
+        <v>12142.92207440571</v>
       </c>
       <c r="G65" t="n">
-        <v>12468.34808649144</v>
+        <v>12142.92207440571</v>
       </c>
       <c r="H65" t="n">
-        <v>-626.0214703820067</v>
+        <v>-464.6722718057894</v>
       </c>
       <c r="I65" t="n">
-        <v>-626.0214703820067</v>
+        <v>-464.6722718057894</v>
       </c>
       <c r="J65" t="n">
-        <v>-626.0214703820067</v>
+        <v>-464.6722718057894</v>
       </c>
       <c r="K65" t="n">
-        <v>-626.0214703820067</v>
+        <v>-464.6722718057894</v>
       </c>
       <c r="L65" t="n">
-        <v>-626.0214703820067</v>
+        <v>-464.6722718057894</v>
       </c>
       <c r="M65" t="n">
-        <v>-626.0214703820067</v>
+        <v>-464.6722718057894</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>11842.32661610943</v>
+        <v>11678.24980259992</v>
       </c>
     </row>
     <row r="66">
@@ -3919,37 +3919,37 @@
         <v>44682</v>
       </c>
       <c r="C66" t="n">
-        <v>12649.13114707644</v>
+        <v>12308.20292140971</v>
       </c>
       <c r="D66" t="n">
-        <v>11290.22484266901</v>
+        <v>10932.73539865653</v>
       </c>
       <c r="E66" t="n">
-        <v>13479.42378944137</v>
+        <v>13328.99857226893</v>
       </c>
       <c r="F66" t="n">
-        <v>12649.13114707644</v>
+        <v>12308.20292140971</v>
       </c>
       <c r="G66" t="n">
-        <v>12649.13114707644</v>
+        <v>12308.20292140971</v>
       </c>
       <c r="H66" t="n">
-        <v>-269.6218705832304</v>
+        <v>-149.4845655772051</v>
       </c>
       <c r="I66" t="n">
-        <v>-269.6218705832304</v>
+        <v>-149.4845655772051</v>
       </c>
       <c r="J66" t="n">
-        <v>-269.6218705832304</v>
+        <v>-149.4845655772051</v>
       </c>
       <c r="K66" t="n">
-        <v>-269.6218705832304</v>
+        <v>-149.4845655772051</v>
       </c>
       <c r="L66" t="n">
-        <v>-269.6218705832304</v>
+        <v>-149.4845655772051</v>
       </c>
       <c r="M66" t="n">
-        <v>-269.6218705832304</v>
+        <v>-149.4845655772051</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>12379.50927649321</v>
+        <v>12158.7183558325</v>
       </c>
     </row>
     <row r="67">
@@ -3972,37 +3972,37 @@
         <v>44713</v>
       </c>
       <c r="C67" t="n">
-        <v>12835.94030968094</v>
+        <v>12478.99312998051</v>
       </c>
       <c r="D67" t="n">
-        <v>11876.03111059491</v>
+        <v>11187.90462367123</v>
       </c>
       <c r="E67" t="n">
-        <v>14022.92859000533</v>
+        <v>13422.14007959344</v>
       </c>
       <c r="F67" t="n">
-        <v>12834.30708531799</v>
+        <v>12478.99312998051</v>
       </c>
       <c r="G67" t="n">
-        <v>12837.02820425048</v>
+        <v>12478.99312998051</v>
       </c>
       <c r="H67" t="n">
-        <v>145.0889220745938</v>
+        <v>-187.3036042945899</v>
       </c>
       <c r="I67" t="n">
-        <v>145.0889220745938</v>
+        <v>-187.3036042945899</v>
       </c>
       <c r="J67" t="n">
-        <v>145.0889220745938</v>
+        <v>-187.3036042945899</v>
       </c>
       <c r="K67" t="n">
-        <v>145.0889220745938</v>
+        <v>-187.3036042945899</v>
       </c>
       <c r="L67" t="n">
-        <v>145.0889220745938</v>
+        <v>-187.3036042945899</v>
       </c>
       <c r="M67" t="n">
-        <v>145.0889220745938</v>
+        <v>-187.3036042945899</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>12981.02923175554</v>
+        <v>12291.68952568592</v>
       </c>
     </row>
     <row r="68">
@@ -4025,37 +4025,37 @@
         <v>44743</v>
       </c>
       <c r="C68" t="n">
-        <v>13016.72337026595</v>
+        <v>12644.27397698451</v>
       </c>
       <c r="D68" t="n">
-        <v>12274.34311969919</v>
+        <v>11938.03138265062</v>
       </c>
       <c r="E68" t="n">
-        <v>14513.4135223018</v>
+        <v>14314.64938400019</v>
       </c>
       <c r="F68" t="n">
-        <v>13006.04508739199</v>
+        <v>12642.39958522626</v>
       </c>
       <c r="G68" t="n">
-        <v>13025.1345251467</v>
+        <v>12645.5929049827</v>
       </c>
       <c r="H68" t="n">
-        <v>367.7841786861756</v>
+        <v>402.0080508742595</v>
       </c>
       <c r="I68" t="n">
-        <v>367.7841786861756</v>
+        <v>402.0080508742595</v>
       </c>
       <c r="J68" t="n">
-        <v>367.7841786861756</v>
+        <v>402.0080508742595</v>
       </c>
       <c r="K68" t="n">
-        <v>367.7841786861756</v>
+        <v>402.0080508742595</v>
       </c>
       <c r="L68" t="n">
-        <v>367.7841786861756</v>
+        <v>402.0080508742595</v>
       </c>
       <c r="M68" t="n">
-        <v>367.7841786861756</v>
+        <v>402.0080508742595</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>13384.50754895212</v>
+        <v>13046.28202785877</v>
       </c>
     </row>
     <row r="69">
@@ -4078,37 +4078,37 @@
         <v>44774</v>
       </c>
       <c r="C69" t="n">
-        <v>13203.53253287045</v>
+        <v>12815.0641855553</v>
       </c>
       <c r="D69" t="n">
-        <v>12985.28120788492</v>
+        <v>12612.39567338693</v>
       </c>
       <c r="E69" t="n">
-        <v>15145.28009574375</v>
+        <v>14919.32993911434</v>
       </c>
       <c r="F69" t="n">
-        <v>13178.38407103112</v>
+        <v>12805.21853096119</v>
       </c>
       <c r="G69" t="n">
-        <v>13225.23461461166</v>
+        <v>12823.40359079983</v>
       </c>
       <c r="H69" t="n">
-        <v>839.6231907209834</v>
+        <v>897.8202712448876</v>
       </c>
       <c r="I69" t="n">
-        <v>839.6231907209834</v>
+        <v>897.8202712448876</v>
       </c>
       <c r="J69" t="n">
-        <v>839.6231907209834</v>
+        <v>897.8202712448876</v>
       </c>
       <c r="K69" t="n">
-        <v>839.6231907209834</v>
+        <v>897.8202712448876</v>
       </c>
       <c r="L69" t="n">
-        <v>839.6231907209834</v>
+        <v>897.8202712448876</v>
       </c>
       <c r="M69" t="n">
-        <v>839.6231907209834</v>
+        <v>897.8202712448876</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>14043.15572359143</v>
+        <v>13712.88445680019</v>
       </c>
     </row>
     <row r="70">
@@ -4131,37 +4131,37 @@
         <v>44805</v>
       </c>
       <c r="C70" t="n">
-        <v>13390.34169547495</v>
+        <v>12985.85439412611</v>
       </c>
       <c r="D70" t="n">
-        <v>12713.51636187573</v>
+        <v>12368.99128999717</v>
       </c>
       <c r="E70" t="n">
-        <v>14892.06084462681</v>
+        <v>14582.8728490938</v>
       </c>
       <c r="F70" t="n">
-        <v>13348.09692916558</v>
+        <v>12964.03921061856</v>
       </c>
       <c r="G70" t="n">
-        <v>13428.30033381519</v>
+        <v>13005.47874788881</v>
       </c>
       <c r="H70" t="n">
-        <v>438.969028822981</v>
+        <v>518.0735823446508</v>
       </c>
       <c r="I70" t="n">
-        <v>438.969028822981</v>
+        <v>518.0735823446508</v>
       </c>
       <c r="J70" t="n">
-        <v>438.969028822981</v>
+        <v>518.0735823446508</v>
       </c>
       <c r="K70" t="n">
-        <v>438.969028822981</v>
+        <v>518.0735823446508</v>
       </c>
       <c r="L70" t="n">
-        <v>438.969028822981</v>
+        <v>518.0735823446508</v>
       </c>
       <c r="M70" t="n">
-        <v>438.969028822981</v>
+        <v>518.0735823446508</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>13829.31072429793</v>
+        <v>13503.92797647076</v>
       </c>
     </row>
     <row r="71">
@@ -4184,37 +4184,37 @@
         <v>44835</v>
       </c>
       <c r="C71" t="n">
-        <v>13571.12475605995</v>
+        <v>13151.1352411301</v>
       </c>
       <c r="D71" t="n">
-        <v>13279.3071415779</v>
+        <v>12948.07391964047</v>
       </c>
       <c r="E71" t="n">
-        <v>15498.4641483284</v>
+        <v>15176.52359095227</v>
       </c>
       <c r="F71" t="n">
-        <v>13508.65482766051</v>
+        <v>13117.54925739284</v>
       </c>
       <c r="G71" t="n">
-        <v>13628.28940996867</v>
+        <v>13185.49390351593</v>
       </c>
       <c r="H71" t="n">
-        <v>826.053343941265</v>
+        <v>914.9799253755597</v>
       </c>
       <c r="I71" t="n">
-        <v>826.053343941265</v>
+        <v>914.9799253755597</v>
       </c>
       <c r="J71" t="n">
-        <v>826.053343941265</v>
+        <v>914.9799253755597</v>
       </c>
       <c r="K71" t="n">
-        <v>826.053343941265</v>
+        <v>914.9799253755597</v>
       </c>
       <c r="L71" t="n">
-        <v>826.053343941265</v>
+        <v>914.9799253755597</v>
       </c>
       <c r="M71" t="n">
-        <v>826.053343941265</v>
+        <v>914.9799253755597</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>14397.17810000121</v>
+        <v>14066.11516650566</v>
       </c>
     </row>
     <row r="72">
@@ -4237,37 +4237,37 @@
         <v>44866</v>
       </c>
       <c r="C72" t="n">
-        <v>13757.93391866445</v>
+        <v>13321.9254497009</v>
       </c>
       <c r="D72" t="n">
-        <v>12524.11012102822</v>
+        <v>12115.71888614501</v>
       </c>
       <c r="E72" t="n">
-        <v>14720.57925768642</v>
+        <v>14423.09049000204</v>
       </c>
       <c r="F72" t="n">
-        <v>13673.65473038408</v>
+        <v>13269.96264565123</v>
       </c>
       <c r="G72" t="n">
-        <v>13837.42076397362</v>
+        <v>13370.85928261383</v>
       </c>
       <c r="H72" t="n">
-        <v>-123.7279370583094</v>
+        <v>-39.21483569233998</v>
       </c>
       <c r="I72" t="n">
-        <v>-123.7279370583094</v>
+        <v>-39.21483569233998</v>
       </c>
       <c r="J72" t="n">
-        <v>-123.7279370583094</v>
+        <v>-39.21483569233998</v>
       </c>
       <c r="K72" t="n">
-        <v>-123.7279370583094</v>
+        <v>-39.21483569233998</v>
       </c>
       <c r="L72" t="n">
-        <v>-123.7279370583094</v>
+        <v>-39.21483569233998</v>
       </c>
       <c r="M72" t="n">
-        <v>-123.7279370583094</v>
+        <v>-39.21483569233998</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>13634.20598160614</v>
+        <v>13282.71061400856</v>
       </c>
     </row>
     <row r="73">
@@ -4290,37 +4290,37 @@
         <v>44896</v>
       </c>
       <c r="C73" t="n">
-        <v>13938.71697924945</v>
+        <v>13487.2062967049</v>
       </c>
       <c r="D73" t="n">
-        <v>12349.63607016938</v>
+        <v>11903.53061608738</v>
       </c>
       <c r="E73" t="n">
-        <v>14565.63091522341</v>
+        <v>14204.42764857607</v>
       </c>
       <c r="F73" t="n">
-        <v>13833.21317643289</v>
+        <v>13418.65213871362</v>
       </c>
       <c r="G73" t="n">
-        <v>14041.45578897563</v>
+        <v>13551.21758156069</v>
       </c>
       <c r="H73" t="n">
-        <v>-492.5214401272133</v>
+        <v>-416.5613831127608</v>
       </c>
       <c r="I73" t="n">
-        <v>-492.5214401272133</v>
+        <v>-416.5613831127608</v>
       </c>
       <c r="J73" t="n">
-        <v>-492.5214401272133</v>
+        <v>-416.5613831127608</v>
       </c>
       <c r="K73" t="n">
-        <v>-492.5214401272133</v>
+        <v>-416.5613831127608</v>
       </c>
       <c r="L73" t="n">
-        <v>-492.5214401272133</v>
+        <v>-416.5613831127608</v>
       </c>
       <c r="M73" t="n">
-        <v>-492.5214401272133</v>
+        <v>-416.5613831127608</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>13446.19553912224</v>
+        <v>13070.64491359214</v>
       </c>
     </row>
     <row r="74">
@@ -4343,37 +4343,37 @@
         <v>44927</v>
       </c>
       <c r="C74" t="n">
-        <v>14125.52614185396</v>
+        <v>13657.9965052757</v>
       </c>
       <c r="D74" t="n">
-        <v>12812.4055241949</v>
+        <v>12307.10988354332</v>
       </c>
       <c r="E74" t="n">
-        <v>14939.07242114565</v>
+        <v>14740.23836909777</v>
       </c>
       <c r="F74" t="n">
-        <v>13996.99391154471</v>
+        <v>13569.99886664531</v>
       </c>
       <c r="G74" t="n">
-        <v>14249.76425121591</v>
+        <v>13744.69972483562</v>
       </c>
       <c r="H74" t="n">
-        <v>-219.3209848036971</v>
+        <v>-154.7725461225894</v>
       </c>
       <c r="I74" t="n">
-        <v>-219.3209848036971</v>
+        <v>-154.7725461225894</v>
       </c>
       <c r="J74" t="n">
-        <v>-219.3209848036971</v>
+        <v>-154.7725461225894</v>
       </c>
       <c r="K74" t="n">
-        <v>-219.3209848036971</v>
+        <v>-154.7725461225894</v>
       </c>
       <c r="L74" t="n">
-        <v>-219.3209848036971</v>
+        <v>-154.7725461225894</v>
       </c>
       <c r="M74" t="n">
-        <v>-219.3209848036971</v>
+        <v>-154.7725461225894</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>13906.20515705026</v>
+        <v>13503.22395915311</v>
       </c>
     </row>
     <row r="75">
@@ -4396,37 +4396,37 @@
         <v>44958</v>
       </c>
       <c r="C75" t="n">
-        <v>14312.33530445846</v>
+        <v>13828.7867138465</v>
       </c>
       <c r="D75" t="n">
-        <v>12432.26755116795</v>
+        <v>11988.73350272198</v>
       </c>
       <c r="E75" t="n">
-        <v>14659.52531885266</v>
+        <v>14369.2813287735</v>
       </c>
       <c r="F75" t="n">
-        <v>14157.88950328845</v>
+        <v>13722.0350743777</v>
       </c>
       <c r="G75" t="n">
-        <v>14465.52005117048</v>
+        <v>13936.45312584655</v>
       </c>
       <c r="H75" t="n">
-        <v>-741.687636179685</v>
+        <v>-681.7219679493671</v>
       </c>
       <c r="I75" t="n">
-        <v>-741.687636179685</v>
+        <v>-681.7219679493671</v>
       </c>
       <c r="J75" t="n">
-        <v>-741.687636179685</v>
+        <v>-681.7219679493671</v>
       </c>
       <c r="K75" t="n">
-        <v>-741.687636179685</v>
+        <v>-681.7219679493671</v>
       </c>
       <c r="L75" t="n">
-        <v>-741.687636179685</v>
+        <v>-681.7219679493671</v>
       </c>
       <c r="M75" t="n">
-        <v>-741.687636179685</v>
+        <v>-681.7219679493671</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>13570.64766827877</v>
+        <v>13147.06474589713</v>
       </c>
     </row>
     <row r="76">
@@ -4449,37 +4449,37 @@
         <v>44986</v>
       </c>
       <c r="C76" t="n">
-        <v>14481.06616100446</v>
+        <v>13983.0488377169</v>
       </c>
       <c r="D76" t="n">
-        <v>13471.31640041088</v>
+        <v>13167.80123703609</v>
       </c>
       <c r="E76" t="n">
-        <v>15710.48861310128</v>
+        <v>15443.49718886283</v>
       </c>
       <c r="F76" t="n">
-        <v>14298.82519898506</v>
+        <v>13853.3801714674</v>
       </c>
       <c r="G76" t="n">
-        <v>14658.47763996743</v>
+        <v>14111.00405608243</v>
       </c>
       <c r="H76" t="n">
-        <v>77.44251295459105</v>
+        <v>287.2112118101423</v>
       </c>
       <c r="I76" t="n">
-        <v>77.44251295459105</v>
+        <v>287.2112118101423</v>
       </c>
       <c r="J76" t="n">
-        <v>77.44251295459105</v>
+        <v>287.2112118101423</v>
       </c>
       <c r="K76" t="n">
-        <v>77.44251295459105</v>
+        <v>287.2112118101423</v>
       </c>
       <c r="L76" t="n">
-        <v>77.44251295459105</v>
+        <v>287.2112118101423</v>
       </c>
       <c r="M76" t="n">
-        <v>77.44251295459105</v>
+        <v>287.2112118101423</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>14558.50867395905</v>
+        <v>14270.26004952704</v>
       </c>
     </row>
     <row r="77">
@@ -4502,37 +4502,37 @@
         <v>45017</v>
       </c>
       <c r="C77" t="n">
-        <v>14667.87532360896</v>
+        <v>14153.8390462877</v>
       </c>
       <c r="D77" t="n">
-        <v>12709.17258156893</v>
+        <v>12329.13545816983</v>
       </c>
       <c r="E77" t="n">
-        <v>14958.53500265632</v>
+        <v>14739.94143443753</v>
       </c>
       <c r="F77" t="n">
-        <v>14459.85937118731</v>
+        <v>13994.21934017523</v>
       </c>
       <c r="G77" t="n">
-        <v>14876.98173166565</v>
+        <v>14304.52056024995</v>
       </c>
       <c r="H77" t="n">
-        <v>-847.1482426237429</v>
+        <v>-612.7186863723359</v>
       </c>
       <c r="I77" t="n">
-        <v>-847.1482426237429</v>
+        <v>-612.7186863723359</v>
       </c>
       <c r="J77" t="n">
-        <v>-847.1482426237429</v>
+        <v>-612.7186863723359</v>
       </c>
       <c r="K77" t="n">
-        <v>-847.1482426237429</v>
+        <v>-612.7186863723359</v>
       </c>
       <c r="L77" t="n">
-        <v>-847.1482426237429</v>
+        <v>-612.7186863723359</v>
       </c>
       <c r="M77" t="n">
-        <v>-847.1482426237429</v>
+        <v>-612.7186863723359</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>13820.72708098522</v>
+        <v>13541.12035991536</v>
       </c>
     </row>
     <row r="78">
@@ -4555,37 +4555,37 @@
         <v>45047</v>
       </c>
       <c r="C78" t="n">
-        <v>14848.65838419396</v>
+        <v>14319.1198932917</v>
       </c>
       <c r="D78" t="n">
-        <v>13470.79264571809</v>
+        <v>13119.27150891712</v>
       </c>
       <c r="E78" t="n">
-        <v>15729.87259445178</v>
+        <v>15325.11955116584</v>
       </c>
       <c r="F78" t="n">
-        <v>14600.95642837305</v>
+        <v>14132.26834301698</v>
       </c>
       <c r="G78" t="n">
-        <v>15090.150902891</v>
+        <v>14497.5462503233</v>
       </c>
       <c r="H78" t="n">
-        <v>-222.8932405871455</v>
+        <v>-67.20302053517399</v>
       </c>
       <c r="I78" t="n">
-        <v>-222.8932405871455</v>
+        <v>-67.20302053517399</v>
       </c>
       <c r="J78" t="n">
-        <v>-222.8932405871455</v>
+        <v>-67.20302053517399</v>
       </c>
       <c r="K78" t="n">
-        <v>-222.8932405871455</v>
+        <v>-67.20302053517399</v>
       </c>
       <c r="L78" t="n">
-        <v>-222.8932405871455</v>
+        <v>-67.20302053517399</v>
       </c>
       <c r="M78" t="n">
-        <v>-222.8932405871455</v>
+        <v>-67.20302053517399</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>14625.76514360682</v>
+        <v>14251.91687275652</v>
       </c>
     </row>
     <row r="79">
@@ -4608,37 +4608,37 @@
         <v>45078</v>
       </c>
       <c r="C79" t="n">
-        <v>15035.46754679847</v>
+        <v>14489.91010186249</v>
       </c>
       <c r="D79" t="n">
-        <v>14075.29374084456</v>
+        <v>12947.65462301636</v>
       </c>
       <c r="E79" t="n">
-        <v>16294.22111072688</v>
+        <v>15202.50544665625</v>
       </c>
       <c r="F79" t="n">
-        <v>14754.1043612491</v>
+        <v>14272.40911405348</v>
       </c>
       <c r="G79" t="n">
-        <v>15309.54062542232</v>
+        <v>14693.40481666112</v>
       </c>
       <c r="H79" t="n">
-        <v>138.4413303790471</v>
+        <v>-361.0761621321367</v>
       </c>
       <c r="I79" t="n">
-        <v>138.4413303790471</v>
+        <v>-361.0761621321367</v>
       </c>
       <c r="J79" t="n">
-        <v>138.4413303790471</v>
+        <v>-361.0761621321367</v>
       </c>
       <c r="K79" t="n">
-        <v>138.4413303790471</v>
+        <v>-361.0761621321367</v>
       </c>
       <c r="L79" t="n">
-        <v>138.4413303790471</v>
+        <v>-361.0761621321367</v>
       </c>
       <c r="M79" t="n">
-        <v>138.4413303790471</v>
+        <v>-361.0761621321367</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>15173.90887717751</v>
+        <v>14128.83393973036</v>
       </c>
     </row>
     <row r="80">
@@ -4661,37 +4661,37 @@
         <v>45108</v>
       </c>
       <c r="C80" t="n">
-        <v>15216.25060738347</v>
+        <v>14655.1909488665</v>
       </c>
       <c r="D80" t="n">
-        <v>14619.97364784805</v>
+        <v>14039.69843454083</v>
       </c>
       <c r="E80" t="n">
-        <v>16868.5711504965</v>
+        <v>16380.93428104781</v>
       </c>
       <c r="F80" t="n">
-        <v>14892.96641727331</v>
+        <v>14410.78398048257</v>
       </c>
       <c r="G80" t="n">
-        <v>15520.55050573784</v>
+        <v>14890.26189082203</v>
       </c>
       <c r="H80" t="n">
-        <v>517.136925592677</v>
+        <v>562.9610306393971</v>
       </c>
       <c r="I80" t="n">
-        <v>517.136925592677</v>
+        <v>562.9610306393971</v>
       </c>
       <c r="J80" t="n">
-        <v>517.136925592677</v>
+        <v>562.9610306393971</v>
       </c>
       <c r="K80" t="n">
-        <v>517.136925592677</v>
+        <v>562.9610306393971</v>
       </c>
       <c r="L80" t="n">
-        <v>517.136925592677</v>
+        <v>562.9610306393971</v>
       </c>
       <c r="M80" t="n">
-        <v>517.136925592677</v>
+        <v>562.9610306393971</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>15733.38753297614</v>
+        <v>15218.15197950589</v>
       </c>
     </row>
     <row r="81">
@@ -4714,37 +4714,37 @@
         <v>45139</v>
       </c>
       <c r="C81" t="n">
-        <v>15403.05976998797</v>
+        <v>14825.98115743729</v>
       </c>
       <c r="D81" t="n">
-        <v>15186.40673495867</v>
+        <v>14624.66158548698</v>
       </c>
       <c r="E81" t="n">
-        <v>17538.84304948986</v>
+        <v>17023.92454869018</v>
       </c>
       <c r="F81" t="n">
-        <v>15046.49400081139</v>
+        <v>14551.45961614544</v>
       </c>
       <c r="G81" t="n">
-        <v>15744.23196600247</v>
+        <v>15088.97738548957</v>
       </c>
       <c r="H81" t="n">
-        <v>929.8452041525322</v>
+        <v>1014.806898362328</v>
       </c>
       <c r="I81" t="n">
-        <v>929.8452041525322</v>
+        <v>1014.806898362328</v>
       </c>
       <c r="J81" t="n">
-        <v>929.8452041525322</v>
+        <v>1014.806898362328</v>
       </c>
       <c r="K81" t="n">
-        <v>929.8452041525322</v>
+        <v>1014.806898362328</v>
       </c>
       <c r="L81" t="n">
-        <v>929.8452041525322</v>
+        <v>1014.806898362328</v>
       </c>
       <c r="M81" t="n">
-        <v>929.8452041525322</v>
+        <v>1014.806898362328</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>16332.9049741405</v>
+        <v>15840.78805579962</v>
       </c>
     </row>
     <row r="82">
@@ -4767,37 +4767,37 @@
         <v>45170</v>
       </c>
       <c r="C82" t="n">
-        <v>15589.86893259247</v>
+        <v>14996.77136600809</v>
       </c>
       <c r="D82" t="n">
-        <v>14602.57425432284</v>
+        <v>14157.72761855869</v>
       </c>
       <c r="E82" t="n">
-        <v>16934.896381177</v>
+        <v>16552.551689665</v>
       </c>
       <c r="F82" t="n">
-        <v>15199.50403687742</v>
+        <v>14692.37847935613</v>
       </c>
       <c r="G82" t="n">
-        <v>15975.55261797376</v>
+        <v>15283.90776124125</v>
       </c>
       <c r="H82" t="n">
-        <v>168.3127719152795</v>
+        <v>284.6773205162658</v>
       </c>
       <c r="I82" t="n">
-        <v>168.3127719152795</v>
+        <v>284.6773205162658</v>
       </c>
       <c r="J82" t="n">
-        <v>168.3127719152795</v>
+        <v>284.6773205162658</v>
       </c>
       <c r="K82" t="n">
-        <v>168.3127719152795</v>
+        <v>284.6773205162658</v>
       </c>
       <c r="L82" t="n">
-        <v>168.3127719152795</v>
+        <v>284.6773205162658</v>
       </c>
       <c r="M82" t="n">
-        <v>168.3127719152795</v>
+        <v>284.6773205162658</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>15758.18170450775</v>
+        <v>15281.44868652436</v>
       </c>
     </row>
     <row r="83">
@@ -4820,37 +4820,37 @@
         <v>45200</v>
       </c>
       <c r="C83" t="n">
-        <v>15770.65199317747</v>
+        <v>15162.05221301209</v>
       </c>
       <c r="D83" t="n">
-        <v>15449.75865372542</v>
+        <v>14948.77953479647</v>
       </c>
       <c r="E83" t="n">
-        <v>17869.81159819726</v>
+        <v>17411.71836190281</v>
       </c>
       <c r="F83" t="n">
-        <v>15346.786079954</v>
+        <v>14828.12707119582</v>
       </c>
       <c r="G83" t="n">
-        <v>16192.32735843848</v>
+        <v>15473.11253995213</v>
       </c>
       <c r="H83" t="n">
-        <v>864.2846195489969</v>
+        <v>982.5097904089038</v>
       </c>
       <c r="I83" t="n">
-        <v>864.2846195489969</v>
+        <v>982.5097904089038</v>
       </c>
       <c r="J83" t="n">
-        <v>864.2846195489969</v>
+        <v>982.5097904089038</v>
       </c>
       <c r="K83" t="n">
-        <v>864.2846195489969</v>
+        <v>982.5097904089038</v>
       </c>
       <c r="L83" t="n">
-        <v>864.2846195489969</v>
+        <v>982.5097904089038</v>
       </c>
       <c r="M83" t="n">
-        <v>864.2846195489969</v>
+        <v>982.5097904089038</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -4862,7 +4862,60 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>16634.93661272647</v>
+        <v>16144.56200342099</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C84" t="n">
+        <v>15332.84242158289</v>
+      </c>
+      <c r="D84" t="n">
+        <v>14259.41317017372</v>
+      </c>
+      <c r="E84" t="n">
+        <v>16570.74405088242</v>
+      </c>
+      <c r="F84" t="n">
+        <v>14964.59558473177</v>
+      </c>
+      <c r="G84" t="n">
+        <v>15668.66838125833</v>
+      </c>
+      <c r="H84" t="n">
+        <v>50.20369994566456</v>
+      </c>
+      <c r="I84" t="n">
+        <v>50.20369994566456</v>
+      </c>
+      <c r="J84" t="n">
+        <v>50.20369994566456</v>
+      </c>
+      <c r="K84" t="n">
+        <v>50.20369994566456</v>
+      </c>
+      <c r="L84" t="n">
+        <v>50.20369994566456</v>
+      </c>
+      <c r="M84" t="n">
+        <v>50.20369994566456</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>15383.04612152855</v>
       </c>
     </row>
   </sheetData>
